--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\PowerBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9251F-B0E3-4EEB-9CB0-85758B592E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82101250-A87E-4D02-9616-CBAE155356B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="O43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,6 +2066,7 @@
     <col min="19" max="21" width="8.88671875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
     <col min="24" max="24" width="17.88671875" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="28" width="13.77734375" customWidth="1"/>
   </cols>
@@ -4070,9 +4071,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
       <c r="O30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <f t="shared" si="7"/>
@@ -4084,23 +4088,23 @@
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
-        <v>8.6900000000000013</v>
+        <v>4.04</v>
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>8.6900000000000013</v>
+        <v>0</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="5"/>
-        <v>JLC</v>
+        <v>DIGIKEY</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -4139,15 +4143,16 @@
         <v>2</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <f>8+8+7+1</f>
+        <v>24</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <f t="shared" si="8"/>
@@ -4155,22 +4160,22 @@
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
-        <v>49.76</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>52.512799999999991</v>
+        <v>-12.117599999999999</v>
       </c>
       <c r="U31" t="s">
         <v>285</v>
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>49.76</v>
+        <v>0</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="5"/>
@@ -4277,13 +4282,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
       <c r="O33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <f t="shared" si="8"/>
@@ -4291,11 +4299,11 @@
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <f t="shared" si="2"/>
-        <v>5.2240000000000002</v>
+        <v>0</v>
       </c>
       <c r="T33" t="str">
         <f>IF(ISBLANK(D33),"EMPTY",(H33*R33+IF(D33="yes",4.04,0)))</f>
@@ -4303,7 +4311,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>5.2240000000000002</v>
+        <v>0</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="5"/>
@@ -5472,7 +5480,7 @@
         <v>268</v>
       </c>
       <c r="AA50" s="3">
-        <v>33.700000000000003</v>
+        <v>10</v>
       </c>
       <c r="AD50" s="3"/>
     </row>
@@ -5702,7 +5710,7 @@
       </c>
       <c r="AB53" s="6">
         <f>W70</f>
-        <v>98.004480000000029</v>
+        <v>86.881280000000032</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -6063,7 +6071,7 @@
       </c>
       <c r="AA58" s="3">
         <f>SUM(AA49:AA51)+AB53+SUM(AA54:AA57)</f>
-        <v>273.34448000000003</v>
+        <v>238.52128000000005</v>
       </c>
       <c r="AD58" s="3"/>
     </row>
@@ -6139,7 +6147,7 @@
       </c>
       <c r="AA59" s="3">
         <f>0.12*AA58</f>
-        <v>32.801337600000004</v>
+        <v>28.622553600000003</v>
       </c>
       <c r="AD59" s="3"/>
     </row>
@@ -6293,7 +6301,7 @@
       </c>
       <c r="AA61" s="3">
         <f>SUM(AA58:AA60)</f>
-        <v>323.64581760000004</v>
+        <v>284.64383360000005</v>
       </c>
       <c r="AD61" s="3"/>
     </row>
@@ -6439,7 +6447,7 @@
       </c>
       <c r="AA63" s="3">
         <f>AA61+X70</f>
-        <v>566.53372160000004</v>
+        <v>465.94965760000014</v>
       </c>
       <c r="AD63" s="3"/>
     </row>
@@ -6515,7 +6523,7 @@
       </c>
       <c r="AA64" s="3">
         <f>AA63/10</f>
-        <v>56.653372160000004</v>
+        <v>46.594965760000015</v>
       </c>
       <c r="AD64" s="3"/>
     </row>
@@ -6662,7 +6670,7 @@
       </c>
       <c r="X66">
         <f>COUNTIF(W2:W66,"DIGIKEY")-5</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
@@ -6739,11 +6747,11 @@
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X69">
         <f>SUMIF(W2:W66,"DIGIKEY",Q2:Q66)</f>
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
@@ -6752,15 +6760,15 @@
       </c>
       <c r="V70">
         <f>SUM(V2:V66)</f>
-        <v>293.43020000000001</v>
+        <v>229.75619999999998</v>
       </c>
       <c r="W70" s="7">
         <f>SUMIF(W2:W66,"JLC",V2:V66)*1.28</f>
-        <v>98.004480000000029</v>
+        <v>86.881280000000032</v>
       </c>
       <c r="X70">
         <f>SUMIF(W2:W66,"DIGIKEY",V2:V66)*1.12</f>
-        <v>242.88790399999999</v>
+        <v>181.30582400000006</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
@@ -6782,7 +6790,7 @@
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
-        <v>110</v>
+        <v>60.24</v>
       </c>
       <c r="X74" t="s">
         <v>321</v>
@@ -6791,7 +6799,7 @@
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X75">
         <f>X69/8</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82101250-A87E-4D02-9616-CBAE155356B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548CFD6B-9D3E-484E-8243-4F97070521FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="340">
   <si>
     <t>Reference</t>
   </si>
@@ -1122,6 +1122,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Ordered?</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1633,7 +1642,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1646,6 +1655,11 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1692,7 +1706,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2042,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD75"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="AB55" sqref="AB55"/>
+    <sheetView tabSelected="1" topLeftCell="N43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2065,13 +2086,13 @@
     <col min="18" max="18" width="20.88671875" customWidth="1"/>
     <col min="19" max="21" width="8.88671875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="13.77734375" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2138,8 +2159,14 @@
       <c r="V1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2180,34 +2207,37 @@
       </c>
       <c r="P2">
         <f>IF(W2="DIGIKEY",O2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>IFP2*8</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>M2*10</f>
         <v>20</v>
       </c>
-      <c r="Q2">
-        <f>IFN2*8</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R33" si="1">M2*10-N2</f>
-        <v>20</v>
-      </c>
       <c r="S2">
-        <f t="shared" ref="S2:S65" si="2">IF(O2&gt;10,I2*O2,H2*O2)</f>
-        <v>21.261000000000003</v>
+        <f t="shared" ref="S2:S65" si="1">IF(O2&gt;=10,H2*O2,G2*O2)</f>
+        <v>29.42</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T32" si="3">IF(ISBLANK(D2),"EMPTY",(I2*R2+IF(D2="yes",4.04,0)))</f>
+        <f>IF(ISBLANK(D2),"EMPTY",(I2*R2+IF(D2="yes",4.04,0)))</f>
         <v>25.301000000000002</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V33" si="4">IF(T2="EMPTY",S2,IF(J2="Bottom",S2,IF(U2="DIGIKEY",S2,IF(U2="JLC",T2,IF(T2&lt;S2+0.2,T2,S2)))))</f>
-        <v>21.261000000000003</v>
+        <f t="shared" ref="V2:V33" si="2">IF(T2="EMPTY",S2,IF(J2="Bottom",S2,IF(U2="DIGIKEY",S2,IF(U2="JLC",T2,IF(T2&lt;S2+0.2,T2,S2)))))</f>
+        <v>25.301000000000002</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2:W33" si="5">IF(T2="EMPTY","DIGIKEY",IF(J2="Bottom","DIGIKEY",IF(U2="DIGIKEY",U2,IF(U2="JLC",U2,IF(T2&lt;S2+0.2,"JLC","DIGIKEY")))))</f>
-        <v>DIGIKEY</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <f t="shared" ref="W2:W33" si="3">IF(T2="EMPTY","DIGIKEY",IF(J2="Bottom","DIGIKEY",IF(U2="DIGIKEY",U2,IF(U2="JLC",U2,IF(T2&lt;S2+0.2,"JLC","DIGIKEY")))))</f>
+        <v>JLC</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M65" si="6">L3-K3</f>
+        <f t="shared" ref="M3:M65" si="4">L3-K3</f>
         <v>3</v>
       </c>
       <c r="O3">
@@ -2247,35 +2277,38 @@
         <v>30</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="7">IF(W3="DIGIKEY",O3,0)</f>
+        <f t="shared" ref="P3:P66" si="5">IF(W3="DIGIKEY",O3,0)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="8">M3*8</f>
+        <f t="shared" ref="Q3:Q66" si="6">M3*8</f>
         <v>24</v>
       </c>
       <c r="R3">
+        <f t="shared" ref="R3:R66" si="7">M3*10</f>
+        <v>30</v>
+      </c>
+      <c r="S3">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S3">
+        <v>10.14</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T32" si="8">IF(ISBLANK(D3),"EMPTY",(I3*R3+IF(D3="yes",4.04,0)))</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="V3">
         <f t="shared" si="2"/>
         <v>1.9350000000000001</v>
       </c>
-      <c r="T3">
+      <c r="W3" t="str">
         <f t="shared" si="3"/>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="4"/>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="W3" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>286</v>
       </c>
@@ -2298,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N4" s="4">
@@ -2309,39 +2342,43 @@
         <v>8</v>
       </c>
       <c r="P4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>70.08</v>
+      </c>
+      <c r="T4" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R4" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="2"/>
-        <v>60.24</v>
-      </c>
-      <c r="T4" s="4" t="str">
-        <f t="shared" si="3"/>
         <v>EMPTY</v>
       </c>
       <c r="U4"/>
       <c r="V4">
-        <f t="shared" si="4"/>
-        <v>60.24</v>
+        <f t="shared" si="2"/>
+        <v>70.08</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4"/>
+      <c r="Z4" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O5">
@@ -2381,35 +2418,38 @@
         <v>10</v>
       </c>
       <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="2"/>
-        <v>0.37</v>
-      </c>
-      <c r="T5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="O6">
@@ -2449,35 +2489,38 @@
         <v>150</v>
       </c>
       <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
+        <v>150</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="S6">
+        <v>0.315</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="2"/>
         <v>0.315</v>
       </c>
-      <c r="T6">
+      <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>0.315</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>0.315</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2505,48 +2548,57 @@
       <c r="I7" s="4">
         <v>3.9600000000000003E-2</v>
       </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
       <c r="L7" s="4">
         <v>2</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <f>IF(O7&gt;=10,H7*O7,G7*O7)</f>
+        <v>1.56</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R7" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="3"/>
-        <v>4.8319999999999999</v>
+        <v>4.4359999999999999</v>
       </c>
       <c r="U7"/>
       <c r="V7">
-        <f t="shared" si="4"/>
-        <v>0.79200000000000004</v>
+        <f t="shared" si="2"/>
+        <v>1.56</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O8">
@@ -2586,35 +2638,38 @@
         <v>40</v>
       </c>
       <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>12.68</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="S8">
+        <v>2.58</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="2"/>
         <v>2.58</v>
       </c>
-      <c r="T8">
+      <c r="W8" t="str">
         <f t="shared" si="3"/>
-        <v>2.58</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>2.58</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O9">
@@ -2654,35 +2709,38 @@
         <v>30</v>
       </c>
       <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>3.96</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="T9">
+      <c r="W9" t="str">
         <f t="shared" si="3"/>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2714,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O10">
@@ -2722,35 +2780,38 @@
         <v>20</v>
       </c>
       <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S10">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="2"/>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="T10">
+      <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="4"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2785,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O11">
@@ -2793,35 +2854,41 @@
         <v>10</v>
       </c>
       <c r="P11">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S11">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
-      <c r="T11">
+      <c r="W11" t="str">
         <f t="shared" si="3"/>
-        <v>0.10300000000000001</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
-        <v>0.64</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2853,43 +2920,52 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S12">
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="2"/>
-        <v>4.08</v>
-      </c>
-      <c r="T12">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>7.6630000000000003</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
-        <v>4.08</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2921,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O13">
@@ -2929,35 +3005,38 @@
         <v>20</v>
       </c>
       <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S13">
+        <v>0.104</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
         <v>0.104</v>
       </c>
-      <c r="T13">
+      <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>0.104</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="4"/>
-        <v>0.104</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2988,47 +3067,56 @@
       <c r="J14" t="s">
         <v>281</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>4.96</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S14">
+        <v>4.7930000000000001</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="2"/>
-        <v>1.2048000000000001</v>
-      </c>
-      <c r="T14">
+        <v>4.96</v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>5.5460000000000003</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="4"/>
-        <v>1.2048000000000001</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3056,118 +3144,133 @@
       <c r="I15">
         <v>6.5600000000000006E-2</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P15">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>5.92</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
-        <v>1.0496000000000001</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>5.3520000000000003</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="U15" t="s">
         <v>285</v>
       </c>
       <c r="V15">
+        <f t="shared" si="2"/>
+        <v>5.92</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="3"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.1038</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
         <f t="shared" si="4"/>
-        <v>1.0496000000000001</v>
-      </c>
-      <c r="W15" t="str">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="5"/>
-        <v>DIGIKEY</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16">
-        <v>0.53</v>
-      </c>
-      <c r="I16">
-        <v>0.1038</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P16">
+        <v>8</v>
+      </c>
+      <c r="R16" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="T16" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S16">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="T16">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="W16" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>5.0780000000000003</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="4"/>
-        <v>5.0780000000000003</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3199,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O17">
@@ -3207,35 +3310,38 @@
         <v>10</v>
       </c>
       <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>2.16</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S17">
+        <v>0.12200000000000001</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
-        <v>2.16</v>
-      </c>
-      <c r="T17">
+        <v>0.12200000000000001</v>
+      </c>
+      <c r="W17" t="str">
         <f t="shared" si="3"/>
-        <v>0.12200000000000001</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
-        <v>0.12200000000000001</v>
-      </c>
-      <c r="W17" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3267,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O18">
@@ -3275,38 +3381,41 @@
         <v>10</v>
       </c>
       <c r="P18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>4.74</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="2"/>
-        <v>4.74</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
         <v>4.8730000000000002</v>
       </c>
       <c r="U18" t="s">
         <v>319</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.8730000000000002</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3338,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O19">
@@ -3346,35 +3455,38 @@
         <v>30</v>
       </c>
       <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
+        <v>30</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S19">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="2"/>
         <v>0.38100000000000001</v>
       </c>
-      <c r="T19">
+      <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="4"/>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="W19" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3406,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O20">
@@ -3414,35 +3526,38 @@
         <v>10</v>
       </c>
       <c r="P20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S20">
+        <v>9.5999999999999988E-2</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="2"/>
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="T20">
+        <v>9.5999999999999988E-2</v>
+      </c>
+      <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>9.5999999999999988E-2</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="4"/>
-        <v>9.5999999999999988E-2</v>
-      </c>
-      <c r="W20" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3474,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O21">
@@ -3482,35 +3597,38 @@
         <v>20</v>
       </c>
       <c r="P21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S21">
+        <v>0.39</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="2"/>
         <v>0.39</v>
       </c>
-      <c r="T21">
+      <c r="W21" t="str">
         <f t="shared" si="3"/>
-        <v>0.39</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="4"/>
-        <v>0.39</v>
-      </c>
-      <c r="W21" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3542,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O22">
@@ -3550,35 +3668,41 @@
         <v>10</v>
       </c>
       <c r="P22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="T22" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S22">
+        <v>EMPTY</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="2"/>
         <v>4.3600000000000003</v>
       </c>
-      <c r="T22" t="str">
+      <c r="W22" t="str">
         <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -3613,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O23">
@@ -3621,103 +3745,115 @@
         <v>10</v>
       </c>
       <c r="P23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S23">
+        <v>1.038</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="2"/>
         <v>1.22</v>
       </c>
-      <c r="T23">
+      <c r="W23" t="str">
         <f t="shared" si="3"/>
-        <v>1.038</v>
-      </c>
-      <c r="V23">
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="I24" s="8">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
         <f t="shared" si="4"/>
-        <v>1.22</v>
-      </c>
-      <c r="W23" t="str">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P24" s="8">
         <f t="shared" si="5"/>
-        <v>DIGIKEY</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="H24">
-        <v>1.4</v>
-      </c>
-      <c r="I24">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="R24" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>12.32</v>
+      </c>
+      <c r="T24" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S24">
+        <v>5.032</v>
+      </c>
+      <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>11.2</v>
-      </c>
-      <c r="T24">
+        <v>5.032</v>
+      </c>
+      <c r="W24" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>5.032</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="4"/>
-        <v>5.032</v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3746,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O25">
@@ -3754,35 +3890,38 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
+        <v>EMPTY</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T25" t="str">
+      <c r="W25" t="str">
         <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -3808,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O26">
@@ -3816,35 +3955,41 @@
         <v>8</v>
       </c>
       <c r="P26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>12.48</v>
+      </c>
+      <c r="T26" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S26">
+        <v>EMPTY</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="2"/>
-        <v>10.512</v>
-      </c>
-      <c r="T26" t="str">
+        <v>12.48</v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
-        <v>10.512</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -3870,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O27">
@@ -3878,35 +4023,41 @@
         <v>8</v>
       </c>
       <c r="P27">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>5.68</v>
+      </c>
+      <c r="T27" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S27">
+        <v>EMPTY</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="2"/>
-        <v>4.8479999999999999</v>
-      </c>
-      <c r="T27" t="str">
+        <v>5.68</v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>4.8479999999999999</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -3932,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28">
@@ -3940,35 +4091,38 @@
         <v>0</v>
       </c>
       <c r="P28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
+        <v>EMPTY</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" t="str">
+      <c r="W28" t="str">
         <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -4000,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O29">
@@ -4008,35 +4162,38 @@
         <v>20</v>
       </c>
       <c r="P29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q29">
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S29">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="2"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="T29">
+      <c r="W29" t="str">
         <f t="shared" si="3"/>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="4"/>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="W29" t="str">
-        <f t="shared" si="5"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -4068,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N30">
@@ -4079,35 +4236,38 @@
         <v>0</v>
       </c>
       <c r="P30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
+        <v>8.6900000000000013</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="W30" t="str">
         <f t="shared" si="3"/>
-        <v>4.04</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -4139,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N31">
@@ -4151,44 +4311,47 @@
         <v>0</v>
       </c>
       <c r="P31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="3"/>
-        <v>-12.117599999999999</v>
+        <v>84.828000000000003</v>
       </c>
       <c r="U31" t="s">
         <v>285</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
         <v>330</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -4217,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O32">
@@ -4225,35 +4388,41 @@
         <v>8</v>
       </c>
       <c r="P32">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="T32" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S32">
+        <v>EMPTY</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="T32" t="str">
+      <c r="W32" t="str">
         <f t="shared" si="3"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="4"/>
-        <v>5.2</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4279,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N33">
@@ -4290,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="P33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" t="str">
@@ -4310,15 +4479,18 @@
         <v>EMPTY</v>
       </c>
       <c r="V33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -4350,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O34">
@@ -4358,35 +4530,38 @@
         <v>50</v>
       </c>
       <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="R34">
-        <f t="shared" ref="R34:R65" si="9">M34*10-N34</f>
         <v>50</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T65" si="9">IF(ISBLANK(D34),"EMPTY",(I34*R34+IF(D34="yes",4.04,0)))</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="T34">
-        <f t="shared" ref="T34:T65" si="10">IF(ISBLANK(D34),"EMPTY",(I34*R34+IF(D34="yes",4.04,0)))</f>
+      <c r="V34">
+        <f t="shared" ref="V34:V65" si="10">IF(T34="EMPTY",S34,IF(J34="Bottom",S34,IF(U34="DIGIKEY",S34,IF(U34="JLC",T34,IF(T34&lt;S34+0.2,T34,S34)))))</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="V34">
-        <f t="shared" ref="V34:V65" si="11">IF(T34="EMPTY",S34,IF(J34="Bottom",S34,IF(U34="DIGIKEY",S34,IF(U34="JLC",T34,IF(T34&lt;S34+0.2,T34,S34)))))</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
       <c r="W34" t="str">
-        <f t="shared" ref="W34:W66" si="12">IF(T34="EMPTY","DIGIKEY",IF(J34="Bottom","DIGIKEY",IF(U34="DIGIKEY",U34,IF(U34="JLC",U34,IF(T34&lt;S34+0.2,"JLC","DIGIKEY")))))</f>
+        <f t="shared" ref="W34:W66" si="11">IF(T34="EMPTY","DIGIKEY",IF(J34="Bottom","DIGIKEY",IF(U34="DIGIKEY",U34,IF(U34="JLC",U34,IF(T34&lt;S34+0.2,"JLC","DIGIKEY")))))</f>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>283</v>
       </c>
@@ -4421,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O35">
@@ -4429,35 +4604,41 @@
         <v>10</v>
       </c>
       <c r="P35">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R35">
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="T35">
-        <f t="shared" si="10"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="V35">
+      <c r="W35" t="str">
         <f t="shared" si="11"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="W35" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -4489,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O36">
@@ -4497,35 +4678,38 @@
         <v>90</v>
       </c>
       <c r="P36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="R36">
+        <v>90</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="2"/>
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" si="10"/>
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="V36">
+      <c r="W36" t="str">
         <f t="shared" si="11"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="W36" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -4554,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O37">
@@ -4562,35 +4746,41 @@
         <v>10</v>
       </c>
       <c r="P37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R37">
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T37" t="str">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="2"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V37">
+      <c r="W37" t="str">
         <f t="shared" si="11"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -4622,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O38">
@@ -4630,35 +4820,38 @@
         <v>20</v>
       </c>
       <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R38">
+        <v>20</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="V38">
+      <c r="W38" t="str">
         <f t="shared" si="11"/>
-        <v>0.02</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -4687,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O39">
@@ -4695,35 +4888,41 @@
         <v>10</v>
       </c>
       <c r="P39">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R39">
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T39" t="str">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="2"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="T39" t="str">
-        <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V39">
+      <c r="W39" t="str">
         <f t="shared" si="11"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="W39" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -4752,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O40">
@@ -4760,35 +4959,41 @@
         <v>10</v>
       </c>
       <c r="P40">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R40">
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T40" t="str">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="2"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="T40" t="str">
-        <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V40">
+      <c r="W40" t="str">
         <f t="shared" si="11"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -4817,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O41">
@@ -4825,35 +5030,41 @@
         <v>10</v>
       </c>
       <c r="P41">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R41">
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>7.05</v>
+      </c>
+      <c r="T41" t="str">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="2"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="10"/>
         <v>7.05</v>
       </c>
-      <c r="T41" t="str">
-        <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V41">
+      <c r="W41" t="str">
         <f t="shared" si="11"/>
-        <v>7.05</v>
-      </c>
-      <c r="W41" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -4878,47 +5089,56 @@
       <c r="I42">
         <v>2.5000000000000001E-3</v>
       </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
       <c r="L42">
         <v>2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P42">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T42" t="str">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="T42" t="str">
+        <v>EMPTY</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V42">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W42" t="str">
         <f t="shared" si="11"/>
-        <v>0.05</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -4950,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O43">
@@ -4958,35 +5178,38 @@
         <v>40</v>
       </c>
       <c r="P43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="R43">
+        <v>40</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="2"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f t="shared" si="10"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="V43">
+      <c r="W43" t="str">
         <f t="shared" si="11"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -5018,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="M44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O44">
@@ -5026,35 +5249,38 @@
         <v>20</v>
       </c>
       <c r="P44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R44">
+        <v>20</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="2"/>
         <v>1.4E-2</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f t="shared" si="10"/>
         <v>1.4E-2</v>
       </c>
-      <c r="V44">
+      <c r="W44" t="str">
         <f t="shared" si="11"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="W44" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -5086,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O45">
@@ -5094,34 +5320,37 @@
         <v>20</v>
       </c>
       <c r="P45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R45">
+        <v>20</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="V45" t="s">
         <v>338</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5153,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O46">
@@ -5161,35 +5390,38 @@
         <v>10</v>
       </c>
       <c r="P46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="T46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="10"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V46">
+      <c r="W46" t="str">
         <f t="shared" si="11"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="W46" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O47">
@@ -5229,35 +5461,38 @@
         <v>20</v>
       </c>
       <c r="P47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R47">
+        <v>20</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="2"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="V47">
+      <c r="W47" t="str">
         <f t="shared" si="11"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="W47" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -5292,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O48">
@@ -5300,35 +5535,41 @@
         <v>20</v>
       </c>
       <c r="P48">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="Q48">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R48">
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="10"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="11"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48">
         <v>20</v>
       </c>
-      <c r="S48">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="11"/>
-        <v>0.02</v>
-      </c>
-      <c r="W48" t="str">
-        <f t="shared" si="12"/>
-        <v>DIGIKEY</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -5363,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O49">
@@ -5371,42 +5612,48 @@
         <v>10</v>
       </c>
       <c r="P49">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q49">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R49">
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="T49">
-        <f t="shared" si="10"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="V49">
+      <c r="W49" t="str">
         <f t="shared" si="11"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="W49" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>10</v>
+      </c>
+      <c r="AB49" t="s">
         <v>267</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>62.04</v>
       </c>
-      <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -5441,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="M50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O50">
@@ -5449,42 +5696,48 @@
         <v>20</v>
       </c>
       <c r="P50">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="Q50">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R50">
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="9"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="10"/>
+        <v>0.66</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="11"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50">
         <v>20</v>
       </c>
-      <c r="S50">
-        <f t="shared" si="2"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="10"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="11"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="W50" t="str">
-        <f t="shared" si="12"/>
-        <v>DIGIKEY</v>
-      </c>
-      <c r="Z50" t="s">
+      <c r="AB50" t="s">
         <v>268</v>
       </c>
-      <c r="AA50" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD50" s="3"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -5516,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O51">
@@ -5524,42 +5777,45 @@
         <v>10</v>
       </c>
       <c r="P51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="T51">
+        <v>0.01</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
-      <c r="V51">
+      <c r="W51" t="str">
         <f t="shared" si="11"/>
-        <v>0.01</v>
-      </c>
-      <c r="W51" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="s">
         <v>269</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AC51" s="3">
         <v>10.59</v>
       </c>
-      <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -5591,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="M52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O52">
@@ -5599,43 +5855,46 @@
         <v>20</v>
       </c>
       <c r="P52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R52">
+        <v>20</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="2"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="V52">
+      <c r="W52" t="str">
         <f t="shared" si="11"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="W52" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="s">
         <v>270</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>81.3</v>
       </c>
-      <c r="AB52" s="2"/>
-      <c r="AD52" s="3"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD52" s="2"/>
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -5667,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="M53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O53">
@@ -5675,46 +5934,49 @@
         <v>30</v>
       </c>
       <c r="P53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="R53">
+        <v>30</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="2"/>
         <v>2.7E-2</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <f t="shared" si="10"/>
         <v>2.7E-2</v>
       </c>
-      <c r="V53">
+      <c r="W53" t="str">
         <f t="shared" si="11"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="W53" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="s">
         <v>271</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AC53" s="3">
         <v>52.52</v>
       </c>
-      <c r="AB53" s="6">
+      <c r="AD53" s="6">
         <f>W70</f>
-        <v>86.881280000000032</v>
-      </c>
-      <c r="AD53" s="3"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+        <v>104.34688000000003</v>
+      </c>
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -5740,56 +6002,59 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P54">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+      <c r="T54" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T54" t="str">
+        <v>EMPTY</v>
+      </c>
+      <c r="V54">
         <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V54">
+        <v>38.4</v>
+      </c>
+      <c r="W54" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W54" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>10</v>
+      </c>
+      <c r="Z54" t="s">
         <v>331</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AB54" t="s">
         <v>272</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6.82</v>
       </c>
-      <c r="AD54" s="3"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -5815,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O55">
@@ -5823,42 +6088,48 @@
         <v>10</v>
       </c>
       <c r="P55">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R55">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q55">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R55">
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="T55" t="str">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="2"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="10"/>
         <v>8.2999999999999989</v>
       </c>
-      <c r="T55" t="str">
-        <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V55">
+      <c r="W55" t="str">
         <f t="shared" si="11"/>
-        <v>8.2999999999999989</v>
-      </c>
-      <c r="W55" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>10</v>
+      </c>
+      <c r="AB55" t="s">
         <v>273</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AC55" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -5881,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N56">
@@ -5892,45 +6163,48 @@
         <v>0</v>
       </c>
       <c r="P56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T56" t="str">
+        <v>EMPTY</v>
+      </c>
+      <c r="V56">
         <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W56" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="X56" t="s">
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="s">
         <v>331</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AB56" t="s">
         <v>327</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AC56" s="3">
         <v>0.65</v>
       </c>
-      <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -5962,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O57">
@@ -5970,45 +6244,48 @@
         <v>8</v>
       </c>
       <c r="P57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>8.48</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="2"/>
-        <v>8.48</v>
-      </c>
-      <c r="T57">
+        <v>13.010000000000002</v>
+      </c>
+      <c r="U57" t="s">
+        <v>319</v>
+      </c>
+      <c r="V57">
         <f t="shared" si="10"/>
         <v>13.010000000000002</v>
       </c>
-      <c r="U57" t="s">
-        <v>319</v>
-      </c>
-      <c r="V57">
+      <c r="W57" t="str">
         <f t="shared" si="11"/>
-        <v>13.010000000000002</v>
-      </c>
-      <c r="W57" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
         <v>274</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>60.96</v>
       </c>
-      <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -6031,51 +6308,60 @@
         <v>1</v>
       </c>
       <c r="M58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <f>10*M58-N58</f>
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P58">
+        <v>8</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R58">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>16.38</v>
+      </c>
+      <c r="T58" t="str">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="2"/>
-        <v>18.72</v>
-      </c>
-      <c r="T58" t="str">
+        <v>EMPTY</v>
+      </c>
+      <c r="V58">
         <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V58">
+        <v>16.38</v>
+      </c>
+      <c r="W58" t="str">
         <f t="shared" si="11"/>
-        <v>18.72</v>
-      </c>
-      <c r="W58" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>7</v>
+      </c>
+      <c r="AB58" t="s">
         <v>275</v>
       </c>
-      <c r="AA58" s="3">
-        <f>SUM(AA49:AA51)+AB53+SUM(AA54:AA57)</f>
-        <v>238.52128000000005</v>
-      </c>
-      <c r="AD58" s="3"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC58" s="3">
+        <f>SUM(AC49:AC51)+AD53+SUM(AC54:AC57)</f>
+        <v>255.98688000000004</v>
+      </c>
+      <c r="AF58" s="3"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -6107,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O59">
@@ -6115,43 +6401,49 @@
         <v>8</v>
       </c>
       <c r="P59">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R59">
+        <v>10</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="2"/>
-        <v>3.6480000000000001</v>
-      </c>
-      <c r="T59">
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="V59">
         <f t="shared" si="10"/>
-        <v>5.4790000000000001</v>
-      </c>
-      <c r="V59">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="W59" t="str">
         <f t="shared" si="11"/>
-        <v>3.6480000000000001</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+      <c r="AB59" t="s">
         <v>276</v>
       </c>
-      <c r="AA59" s="3">
-        <f>0.12*AA58</f>
-        <v>28.622553600000003</v>
-      </c>
-      <c r="AD59" s="3"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC59" s="3">
+        <f>0.12*AC58</f>
+        <v>30.718425600000003</v>
+      </c>
+      <c r="AF59" s="3"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -6183,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N60">
@@ -6194,118 +6486,124 @@
         <v>0</v>
       </c>
       <c r="P60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R60">
+        <v>10</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
+        <v>161.34</v>
+      </c>
+      <c r="V60">
         <f t="shared" si="10"/>
-        <v>4.04</v>
-      </c>
-      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="X60" t="s">
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="s">
         <v>331</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AB60" t="s">
         <v>277</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>17.5</v>
       </c>
-      <c r="AD60" s="3"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="AF60" s="3"/>
+    </row>
+    <row r="61" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="8">
         <v>2.31</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="8">
         <v>0.498</v>
       </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="R61" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R61">
+        <v>10</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>20.32</v>
+      </c>
+      <c r="T61" s="8">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="2"/>
-        <v>18.48</v>
-      </c>
-      <c r="T61">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="V61" s="8">
         <f t="shared" si="10"/>
         <v>4.9800000000000004</v>
       </c>
-      <c r="V61">
+      <c r="W61" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="W61" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="X61" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AA61" s="3">
-        <f>SUM(AA58:AA60)</f>
-        <v>284.64383360000005</v>
-      </c>
-      <c r="AD61" s="3"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC61" s="10">
+        <f>SUM(AC58:AC60)</f>
+        <v>304.20530560000003</v>
+      </c>
+      <c r="AF61" s="10"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -6334,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N62">
@@ -6345,40 +6643,43 @@
         <v>0</v>
       </c>
       <c r="P62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T62" t="str">
+        <v>EMPTY</v>
+      </c>
+      <c r="V62">
         <f t="shared" si="10"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W62" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="X62" t="s">
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="s">
         <v>333</v>
       </c>
-      <c r="AA62" s="3"/>
-      <c r="AD62" s="3"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC62" s="3"/>
+      <c r="AF62" s="3"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -6410,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O63">
@@ -6418,40 +6719,43 @@
         <v>8</v>
       </c>
       <c r="P63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R63">
+        <v>10</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>32.24</v>
+      </c>
+      <c r="T63">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="2"/>
-        <v>32.24</v>
-      </c>
-      <c r="T63">
+        <v>16.581</v>
+      </c>
+      <c r="V63">
         <f t="shared" si="10"/>
         <v>16.581</v>
       </c>
-      <c r="V63">
+      <c r="W63" t="str">
         <f t="shared" si="11"/>
-        <v>16.581</v>
-      </c>
-      <c r="W63" t="str">
-        <f t="shared" si="12"/>
         <v>JLC</v>
       </c>
-      <c r="AA63" s="3">
-        <f>AA61+X70</f>
-        <v>465.94965760000014</v>
-      </c>
-      <c r="AD63" s="3"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <f>AC61+Z70</f>
+        <v>524.31730560000005</v>
+      </c>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -6483,122 +6787,131 @@
         <v>2</v>
       </c>
       <c r="M64">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ref="O64:O66" si="12">IF(IF((M64*8-N64)*G64&lt;(M64*10-N64)*H64,M64*8,M64*10)-N64&lt;0,0,IF((M64*8-N64)*G64&lt;(M64*10-N64)*H64,M64*8,M64*10)-N64)</f>
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="1"/>
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="9"/>
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="10"/>
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="11"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X64">
         <v>2</v>
       </c>
-      <c r="O64">
-        <f t="shared" ref="O64:O66" si="13">IF(IF((M64*8-N64)*G64&lt;(M64*10-N64)*H64,M64*8,M64*10)-N64&lt;0,0,IF((M64*8-N64)*G64&lt;(M64*10-N64)*H64,M64*8,M64*10)-N64)</f>
-        <v>16</v>
-      </c>
-      <c r="P64">
+      <c r="Y64">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC64" s="3">
+        <f>AC63/10</f>
+        <v>52.431730560000005</v>
+      </c>
+      <c r="AF64" s="3"/>
+    </row>
+    <row r="65" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R65" s="8">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="R64">
+        <v>10</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="T65" s="8">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="2"/>
-        <v>1.7887999999999999</v>
-      </c>
-      <c r="T64">
+        <v>11.656000000000001</v>
+      </c>
+      <c r="V65" s="8">
         <f t="shared" si="10"/>
-        <v>6.2759999999999998</v>
-      </c>
-      <c r="V64">
+        <v>6.8</v>
+      </c>
+      <c r="W65" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>1.7887999999999999</v>
-      </c>
-      <c r="W64" t="str">
-        <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Z64" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA64" s="3">
-        <f>AA63/10</f>
-        <v>46.594965760000015</v>
-      </c>
-      <c r="AD64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" t="s">
-        <v>206</v>
-      </c>
-      <c r="G65" t="s">
-        <v>315</v>
-      </c>
-      <c r="H65">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="I65">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="2"/>
-        <v>5.64</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="10"/>
-        <v>11.656000000000001</v>
-      </c>
-      <c r="U65" t="s">
-        <v>319</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="11"/>
-        <v>11.656000000000001</v>
-      </c>
-      <c r="W65" t="str">
-        <f t="shared" si="12"/>
-        <v>JLC</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -6630,50 +6943,56 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M67" si="14">L66-K66</f>
+        <f t="shared" ref="M66:M67" si="13">L66-K66</f>
         <v>1</v>
       </c>
       <c r="O66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="P66">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R66">
-        <f t="shared" ref="R66" si="15">M66*10-N66</f>
         <v>10</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66" si="16">IF(O66&gt;10,I66*O66,H66*O66)</f>
-        <v>5.72</v>
+        <f t="shared" ref="S66:S67" si="14">IF(O66&gt;=10,H66*O66,G66*O66)</f>
+        <v>6.88</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66" si="17">IF(ISBLANK(D66),"EMPTY",(I66*R66+IF(D66="yes",4.04,0)))</f>
+        <f t="shared" ref="T66" si="15">IF(ISBLANK(D66),"EMPTY",(I66*R66+IF(D66="yes",4.04,0)))</f>
         <v>6.319</v>
       </c>
       <c r="U66" t="s">
         <v>285</v>
       </c>
       <c r="V66">
-        <f t="shared" ref="V66" si="18">IF(T66="EMPTY",S66,IF(J66="Bottom",S66,IF(U66="DIGIKEY",S66,IF(U66="JLC",T66,IF(T66&lt;S66+0.2,T66,S66)))))</f>
-        <v>5.72</v>
+        <f t="shared" ref="V66" si="16">IF(T66="EMPTY",S66,IF(J66="Bottom",S66,IF(U66="DIGIKEY",S66,IF(U66="JLC",T66,IF(T66&lt;S66+0.2,T66,S66)))))</f>
+        <v>6.88</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>DIGIKEY</v>
       </c>
       <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>10</v>
+      </c>
+      <c r="Z66">
         <f>COUNTIF(W2:W66,"DIGIKEY")-5</f>
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -6705,108 +7024,125 @@
         <v>3</v>
       </c>
       <c r="M67">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67" si="17">IF(IF((M67*8-N67)*G67&lt;(M67*10-N67)*H67,M67*8,M67*10)-N67&lt;0,0,IF((M67*8-N67)*G67&lt;(M67*10-N67)*H67,M67*8,M67*10)-N67)</f>
+        <v>24</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67" si="18">IF(W67="DIGIKEY",O67,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67" si="19">M67*8</f>
+        <v>24</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67" si="20">M67*10</f>
+        <v>30</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <f t="shared" ref="O67" si="19">IF(IF((M67*8-N67)*G67&lt;(M67*10-N67)*H67,M67*8,M67*10)-N67&lt;0,0,IF((M67*8-N67)*G67&lt;(M67*10-N67)*H67,M67*8,M67*10)-N67)</f>
-        <v>24</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67" si="20">IF(W67="DIGIKEY",O67,0)</f>
-        <v>24</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67" si="21">M67*8</f>
-        <v>24</v>
-      </c>
-      <c r="R67">
-        <f t="shared" ref="R67" si="22">M67*10-N67</f>
-        <v>30</v>
-      </c>
-      <c r="S67">
-        <f>IF(O67&gt;10,I67*O67,H67*O67)</f>
-        <v>7.4879999999999995</v>
+        <v>10.8</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67" si="23">IF(ISBLANK(D67),"EMPTY",(I67*R67+IF(D67="yes",4.04,0)))</f>
+        <f t="shared" ref="T67" si="21">IF(ISBLANK(D67),"EMPTY",(I67*R67+IF(D67="yes",4.04,0)))</f>
         <v>13.399999999999999</v>
       </c>
       <c r="U67" t="s">
         <v>285</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67" si="24">IF(T67="EMPTY",S67,IF(J67="Bottom",S67,IF(U67="DIGIKEY",S67,IF(U67="JLC",T67,IF(T67&lt;S67+0.2,T67,S67)))))</f>
-        <v>7.4879999999999995</v>
+        <f t="shared" ref="V67" si="22">IF(T67="EMPTY",S67,IF(J67="Bottom",S67,IF(U67="DIGIKEY",S67,IF(U67="JLC",T67,IF(T67&lt;S67+0.2,T67,S67)))))</f>
+        <v>10.8</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67" si="25">IF(T67="EMPTY","DIGIKEY",IF(J67="Bottom","DIGIKEY",IF(U67="DIGIKEY",U67,IF(U67="JLC",U67,IF(T67&lt;S67+0.2,"JLC","DIGIKEY")))))</f>
+        <f t="shared" ref="W67" si="23">IF(T67="EMPTY","DIGIKEY",IF(J67="Bottom","DIGIKEY",IF(U67="DIGIKEY",U67,IF(U67="JLC",U67,IF(T67&lt;S67+0.2,"JLC","DIGIKEY")))))</f>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X67">
+        <v>3</v>
+      </c>
+      <c r="Y67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>30</v>
       </c>
-      <c r="X69">
+      <c r="Z69">
         <f>SUMIF(W2:W66,"DIGIKEY",Q2:Q66)</f>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="T70" t="s">
         <v>265</v>
       </c>
       <c r="V70">
-        <f>SUM(V2:V66)</f>
-        <v>229.75619999999998</v>
+        <f>SUM(V2:V67)</f>
+        <v>301.63299999999992</v>
       </c>
       <c r="W70" s="7">
-        <f>SUMIF(W2:W66,"JLC",V2:V66)*1.28</f>
-        <v>86.881280000000032</v>
-      </c>
-      <c r="X70">
-        <f>SUMIF(W2:W66,"DIGIKEY",V2:V66)*1.12</f>
-        <v>181.30582400000006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUMIF(W2:W67,"JLC",V2:V67)*1.28</f>
+        <v>104.34688000000003</v>
+      </c>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70">
+        <f>SUMIF(W2:W67,"DIGIKEY",V2:V67)</f>
+        <v>220.11200000000002</v>
+      </c>
+      <c r="AA70">
+        <f>(Z70-V4)*1.12</f>
+        <v>168.03584000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="T71" t="s">
         <v>266</v>
       </c>
       <c r="W71" t="s">
         <v>319</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Z71" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="W73" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
-        <v>60.24</v>
-      </c>
-      <c r="X74" t="s">
+        <v>70.08</v>
+      </c>
+      <c r="Z74" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X75">
-        <f>X69/8</f>
-        <v>41</v>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z75">
+        <f>Z69/8</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="S2:T67">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1 A1:Y67">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
+      <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548CFD6B-9D3E-484E-8243-4F97070521FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC71842F-2B57-4F31-AB2C-3F68269C4A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,6 @@
     <author>tc={A60D47E1-D140-4A7F-8CAC-493854855BBF}</author>
     <author>tc={9997F244-BC2F-40ED-832F-1EAF298C588F}</author>
     <author>tc={D95429D1-15C2-423C-ABC3-D4EFE4CF7069}</author>
-    <author>tc={BFA47708-E4CD-44EB-84B5-D1417A4FFC41}</author>
   </authors>
   <commentList>
     <comment ref="E14" authorId="0" shapeId="0" xr:uid="{074E567F-877A-4BCA-8410-872931E898AC}">
@@ -92,14 +91,6 @@
     Mouser</t>
       </text>
     </comment>
-    <comment ref="F61" authorId="6" shapeId="0" xr:uid="{BFA47708-E4CD-44EB-84B5-D1417A4FFC41}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Alt from winbond elec is cheap and basic part</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1121,10 +1112,10 @@
     <t>bots:D_SOD-323_HandSoldering</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Ordered?</t>
+  </si>
+  <si>
+    <t>C2456211</t>
   </si>
 </sst>
 </file>
@@ -2055,9 +2046,6 @@
   <threadedComment ref="E56" dT="2024-01-22T12:09:12.98" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{D95429D1-15C2-423C-ABC3-D4EFE4CF7069}">
     <text>Mouser</text>
   </threadedComment>
-  <threadedComment ref="F61" dT="2024-01-22T12:15:36.81" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{BFA47708-E4CD-44EB-84B5-D1417A4FFC41}">
-    <text>Alt from winbond elec is cheap and basic part</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2065,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView tabSelected="1" topLeftCell="I43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="V73" sqref="V73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2163,7 +2151,7 @@
         <v>322</v>
       </c>
       <c r="Y1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -5339,8 +5327,9 @@
         <f t="shared" si="9"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="V45" t="s">
-        <v>338</v>
+      <c r="V45">
+        <f t="shared" si="10"/>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="11"/>
@@ -5972,7 +5961,7 @@
       </c>
       <c r="AD53" s="6">
         <f>W70</f>
-        <v>104.34688000000003</v>
+        <v>106.99392000000002</v>
       </c>
       <c r="AF53" s="3"/>
     </row>
@@ -6357,7 +6346,7 @@
       </c>
       <c r="AC58" s="3">
         <f>SUM(AC49:AC51)+AD53+SUM(AC54:AC57)</f>
-        <v>255.98688000000004</v>
+        <v>258.63391999999999</v>
       </c>
       <c r="AF58" s="3"/>
     </row>
@@ -6439,7 +6428,7 @@
       </c>
       <c r="AC59" s="3">
         <f>0.12*AC58</f>
-        <v>30.718425600000003</v>
+        <v>31.036070399999996</v>
       </c>
       <c r="AF59" s="3"/>
     </row>
@@ -6538,11 +6527,14 @@
         <v>178</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>186</v>
       </c>
+      <c r="F61" t="s">
+        <v>339</v>
+      </c>
       <c r="G61" s="8" t="s">
         <v>313</v>
       </c>
@@ -6550,7 +6542,7 @@
         <v>2.31</v>
       </c>
       <c r="I61" s="8">
-        <v>0.498</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="L61" s="8">
         <v>1</v>
@@ -6581,11 +6573,11 @@
       </c>
       <c r="T61" s="8">
         <f t="shared" si="9"/>
-        <v>4.9800000000000004</v>
+        <v>7.0299999999999994</v>
       </c>
       <c r="V61" s="8">
         <f t="shared" si="10"/>
-        <v>4.9800000000000004</v>
+        <v>7.0299999999999994</v>
       </c>
       <c r="W61" s="8" t="str">
         <f t="shared" si="11"/>
@@ -6599,7 +6591,7 @@
       </c>
       <c r="AC61" s="10">
         <f>SUM(AC58:AC60)</f>
-        <v>304.20530560000003</v>
+        <v>307.16999039999996</v>
       </c>
       <c r="AF61" s="10"/>
     </row>
@@ -6751,7 +6743,7 @@
       </c>
       <c r="AC63" s="3">
         <f>AC61+Z70</f>
-        <v>524.31730560000005</v>
+        <v>527.28199040000004</v>
       </c>
       <c r="AF63" s="3"/>
     </row>
@@ -6833,7 +6825,7 @@
       </c>
       <c r="AC64" s="3">
         <f>AC63/10</f>
-        <v>52.431730560000005</v>
+        <v>52.728199040000007</v>
       </c>
       <c r="AF64" s="3"/>
     </row>
@@ -7085,11 +7077,11 @@
       </c>
       <c r="V70">
         <f>SUM(V2:V67)</f>
-        <v>301.63299999999992</v>
+        <v>303.70099999999996</v>
       </c>
       <c r="W70" s="7">
         <f>SUMIF(W2:W67,"JLC",V2:V67)*1.28</f>
-        <v>104.34688000000003</v>
+        <v>106.99392000000002</v>
       </c>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC71842F-2B57-4F31-AB2C-3F68269C4A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216E980-37B3-433F-A3B9-BB413714E1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
+    <sheet name="POWER_BOARD (TDP COST)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,8 +96,71 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DA525272-F786-445E-89F2-CFB58963D0AF}</author>
+    <author>tc={362ACF92-6FB7-4C53-9A9A-C8F578ECB5DB}</author>
+    <author>tc={D2AF7201-6637-47CA-BBE4-86D3FF6814B6}</author>
+    <author>tc={F6DDD2F5-4CC1-4A55-A9EA-3EAF395D5878}</author>
+    <author>tc={9F4BCB6C-22AD-4B33-BDB9-F57E0E7EA078}</author>
+    <author>tc={79D777D5-6279-46D9-8788-D2501E3CACF7}</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{DA525272-F786-445E-89F2-CFB58963D0AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SMC diode solutions is cheaper</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{362ACF92-6FB7-4C53-9A9A-C8F578ECB5DB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    JLC alt cheaper</t>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="2" shapeId="0" xr:uid="{D2AF7201-6637-47CA-BBE4-86D3FF6814B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    JLC alt cheaper</t>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="3" shapeId="0" xr:uid="{F6DDD2F5-4CC1-4A55-A9EA-3EAF395D5878}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These are estimates</t>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="4" shapeId="0" xr:uid="{9F4BCB6C-22AD-4B33-BDB9-F57E0E7EA078}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Alternative from good ark</t>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="5" shapeId="0" xr:uid="{79D777D5-6279-46D9-8788-D2501E3CACF7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mouser</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="346">
   <si>
     <t>Reference</t>
   </si>
@@ -911,9 +975,6 @@
     <t>components</t>
   </si>
   <si>
-    <t>extended fee</t>
-  </si>
-  <si>
     <t>smt</t>
   </si>
   <si>
@@ -1116,6 +1177,27 @@
   </si>
   <si>
     <t>C2456211</t>
+  </si>
+  <si>
+    <t>Eng Fee</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>PCBA</t>
+  </si>
+  <si>
+    <t>feeders</t>
+  </si>
+  <si>
+    <t>&lt;- feeders loading fee 2.02 per component for standard (if we choose black it has to be standard not economic)</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1347,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1633,7 +1721,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1651,6 +1739,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1697,7 +1786,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2049,12 +2159,35 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E14" dT="2024-01-22T11:23:35.69" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{DA525272-F786-445E-89F2-CFB58963D0AF}">
+    <text>SMC diode solutions is cheaper</text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2024-01-22T21:23:08.17" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{362ACF92-6FB7-4C53-9A9A-C8F578ECB5DB}">
+    <text>JLC alt cheaper</text>
+  </threadedComment>
+  <threadedComment ref="F15" dT="2024-01-22T21:24:47.83" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{D2AF7201-6637-47CA-BBE4-86D3FF6814B6}">
+    <text>JLC alt cheaper</text>
+  </threadedComment>
+  <threadedComment ref="H17" dT="2024-01-22T11:28:15.15" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{F6DDD2F5-4CC1-4A55-A9EA-3EAF395D5878}">
+    <text>These are estimates</text>
+  </threadedComment>
+  <threadedComment ref="E29" dT="2024-01-22T11:39:19.85" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{9F4BCB6C-22AD-4B33-BDB9-F57E0E7EA078}">
+    <text>Alternative from good ark</text>
+  </threadedComment>
+  <threadedComment ref="E56" dT="2024-01-22T12:09:12.98" personId="{B7E97F6A-A6D9-4526-93D7-E9F61BCAD376}" id="{79D777D5-6279-46D9-8788-D2501E3CACF7}">
+    <text>Mouser</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="V73" sqref="V73"/>
+    <sheetView tabSelected="1" topLeftCell="O43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,16 +2233,16 @@
         <v>203</v>
       </c>
       <c r="G1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" t="s">
         <v>317</v>
-      </c>
-      <c r="H1" t="s">
-        <v>318</v>
       </c>
       <c r="I1" t="s">
         <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K1" t="s">
         <v>255</v>
@@ -2124,16 +2257,16 @@
         <v>253</v>
       </c>
       <c r="O1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>319</v>
+      </c>
+      <c r="R1" t="s">
         <v>287</v>
-      </c>
-      <c r="P1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" t="s">
-        <v>288</v>
       </c>
       <c r="S1" t="s">
         <v>250</v>
@@ -2142,16 +2275,16 @@
         <v>251</v>
       </c>
       <c r="U1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V1" t="s">
         <v>252</v>
       </c>
       <c r="X1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -2174,7 +2307,7 @@
         <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2">
         <v>1.4710000000000001</v>
@@ -2213,6 +2346,9 @@
         <f>IF(ISBLANK(D2),"EMPTY",(I2*R2+IF(D2="yes",4.04,0)))</f>
         <v>25.301000000000002</v>
       </c>
+      <c r="U2" t="s">
+        <v>318</v>
+      </c>
       <c r="V2">
         <f t="shared" ref="V2:V33" si="2">IF(T2="EMPTY",S2,IF(J2="Bottom",S2,IF(U2="DIGIKEY",S2,IF(U2="JLC",T2,IF(T2&lt;S2+0.2,T2,S2)))))</f>
         <v>25.301000000000002</v>
@@ -2245,7 +2381,7 @@
         <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H3">
         <v>0.33800000000000002</v>
@@ -2284,6 +2420,9 @@
         <f t="shared" ref="T3:T32" si="8">IF(ISBLANK(D3),"EMPTY",(I3*R3+IF(D3="yes",4.04,0)))</f>
         <v>1.9350000000000001</v>
       </c>
+      <c r="U3" t="s">
+        <v>318</v>
+      </c>
       <c r="V3">
         <f t="shared" si="2"/>
         <v>1.9350000000000001</v>
@@ -2298,7 +2437,7 @@
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2310,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H4" s="4">
         <v>7.53</v>
@@ -2349,7 +2488,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
-      <c r="U4"/>
+      <c r="U4" t="s">
+        <v>284</v>
+      </c>
       <c r="V4">
         <f t="shared" si="2"/>
         <v>70.08</v>
@@ -2363,7 +2504,7 @@
       </c>
       <c r="Y4"/>
       <c r="Z4" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -2386,7 +2527,7 @@
         <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H5">
         <v>3.6999999999999998E-2</v>
@@ -2425,6 +2566,9 @@
         <f t="shared" si="8"/>
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="U5" t="s">
+        <v>318</v>
+      </c>
       <c r="V5">
         <f t="shared" si="2"/>
         <v>2.5999999999999999E-2</v>
@@ -2457,7 +2601,7 @@
         <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H6">
         <v>3.2599999999999997E-2</v>
@@ -2496,6 +2640,9 @@
         <f t="shared" si="8"/>
         <v>0.315</v>
       </c>
+      <c r="U6" t="s">
+        <v>318</v>
+      </c>
       <c r="V6">
         <f t="shared" si="2"/>
         <v>0.315</v>
@@ -2528,7 +2675,7 @@
         <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H7" s="4">
         <v>0.156</v>
@@ -2570,7 +2717,9 @@
         <f t="shared" si="8"/>
         <v>4.4359999999999999</v>
       </c>
-      <c r="U7"/>
+      <c r="U7" t="s">
+        <v>284</v>
+      </c>
       <c r="V7">
         <f t="shared" si="2"/>
         <v>1.56</v>
@@ -2606,7 +2755,7 @@
         <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H8">
         <v>0.317</v>
@@ -2645,6 +2794,9 @@
         <f t="shared" si="8"/>
         <v>2.58</v>
       </c>
+      <c r="U8" t="s">
+        <v>318</v>
+      </c>
       <c r="V8">
         <f t="shared" si="2"/>
         <v>2.58</v>
@@ -2677,7 +2829,7 @@
         <v>244</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H9">
         <v>0.13200000000000001</v>
@@ -2716,6 +2868,9 @@
         <f t="shared" si="8"/>
         <v>0.13800000000000001</v>
       </c>
+      <c r="U9" t="s">
+        <v>318</v>
+      </c>
       <c r="V9">
         <f t="shared" si="2"/>
         <v>0.13800000000000001</v>
@@ -2748,7 +2903,7 @@
         <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H10">
         <v>4.7E-2</v>
@@ -2787,6 +2942,9 @@
         <f t="shared" si="8"/>
         <v>5.4000000000000006E-2</v>
       </c>
+      <c r="U10" t="s">
+        <v>318</v>
+      </c>
       <c r="V10">
         <f t="shared" si="2"/>
         <v>5.4000000000000006E-2</v>
@@ -2819,7 +2977,7 @@
         <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H11">
         <v>6.4000000000000001E-2</v>
@@ -2828,7 +2986,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2861,6 +3019,9 @@
         <f t="shared" si="8"/>
         <v>0.10300000000000001</v>
       </c>
+      <c r="U11" t="s">
+        <v>284</v>
+      </c>
       <c r="V11">
         <f t="shared" si="2"/>
         <v>0.64</v>
@@ -2890,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
         <v>241</v>
@@ -2938,6 +3099,9 @@
         <f t="shared" si="8"/>
         <v>7.6630000000000003</v>
       </c>
+      <c r="U12" t="s">
+        <v>284</v>
+      </c>
       <c r="V12">
         <f t="shared" si="2"/>
         <v>1.83</v>
@@ -2973,7 +3137,7 @@
         <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H13">
         <v>5.8000000000000003E-2</v>
@@ -3012,6 +3176,9 @@
         <f t="shared" si="8"/>
         <v>0.104</v>
       </c>
+      <c r="U13" t="s">
+        <v>318</v>
+      </c>
       <c r="V13">
         <f t="shared" si="2"/>
         <v>0.104</v>
@@ -3053,7 +3220,7 @@
         <v>7.5300000000000006E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3089,6 +3256,9 @@
         <f t="shared" si="8"/>
         <v>4.7930000000000001</v>
       </c>
+      <c r="U14" t="s">
+        <v>284</v>
+      </c>
       <c r="V14">
         <f t="shared" si="2"/>
         <v>4.96</v>
@@ -3121,10 +3291,10 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H15">
         <v>0.623</v>
@@ -3167,7 +3337,7 @@
         <v>4.6959999999999997</v>
       </c>
       <c r="U15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V15">
         <f t="shared" si="2"/>
@@ -3204,7 +3374,7 @@
         <v>238</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H16" s="8">
         <v>0.53</v>
@@ -3243,6 +3413,9 @@
         <f t="shared" si="8"/>
         <v>5.0780000000000003</v>
       </c>
+      <c r="U16" t="s">
+        <v>318</v>
+      </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
         <v>5.0780000000000003</v>
@@ -3317,6 +3490,9 @@
         <f t="shared" si="8"/>
         <v>0.12200000000000001</v>
       </c>
+      <c r="U17" t="s">
+        <v>318</v>
+      </c>
       <c r="V17">
         <f t="shared" si="2"/>
         <v>0.12200000000000001</v>
@@ -3349,7 +3525,7 @@
         <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18">
         <v>0.47399999999999998</v>
@@ -3389,7 +3565,7 @@
         <v>4.8730000000000002</v>
       </c>
       <c r="U18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V18">
         <f t="shared" si="2"/>
@@ -3462,6 +3638,9 @@
         <f t="shared" si="8"/>
         <v>0.38100000000000001</v>
       </c>
+      <c r="U19" t="s">
+        <v>318</v>
+      </c>
       <c r="V19">
         <f t="shared" si="2"/>
         <v>0.38100000000000001</v>
@@ -3533,6 +3712,9 @@
         <f t="shared" si="8"/>
         <v>9.5999999999999988E-2</v>
       </c>
+      <c r="U20" t="s">
+        <v>318</v>
+      </c>
       <c r="V20">
         <f t="shared" si="2"/>
         <v>9.5999999999999988E-2</v>
@@ -3604,6 +3786,9 @@
         <f t="shared" si="8"/>
         <v>0.39</v>
       </c>
+      <c r="U21" t="s">
+        <v>318</v>
+      </c>
       <c r="V21">
         <f t="shared" si="2"/>
         <v>0.39</v>
@@ -3633,7 +3818,7 @@
         <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H22">
         <v>0.436</v>
@@ -3642,7 +3827,7 @@
         <v>0.63</v>
       </c>
       <c r="J22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3675,6 +3860,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
+      <c r="U22" t="s">
+        <v>284</v>
+      </c>
       <c r="V22">
         <f t="shared" si="2"/>
         <v>4.3600000000000003</v>
@@ -3719,7 +3907,7 @@
         <v>0.1038</v>
       </c>
       <c r="J23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -3752,6 +3940,9 @@
         <f t="shared" si="8"/>
         <v>1.038</v>
       </c>
+      <c r="U23" t="s">
+        <v>284</v>
+      </c>
       <c r="V23">
         <f t="shared" si="2"/>
         <v>1.22</v>
@@ -3826,6 +4017,9 @@
         <f t="shared" si="8"/>
         <v>5.032</v>
       </c>
+      <c r="U24" t="s">
+        <v>318</v>
+      </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
         <v>5.032</v>
@@ -3855,7 +4049,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H25">
         <v>0.23200000000000001</v>
@@ -3897,6 +4091,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
+      <c r="U25" t="s">
+        <v>284</v>
+      </c>
       <c r="V25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3923,7 +4120,7 @@
         <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H26">
         <v>1.3140000000000001</v>
@@ -3962,6 +4159,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
+      <c r="U26" t="s">
+        <v>284</v>
+      </c>
       <c r="V26">
         <f t="shared" si="2"/>
         <v>12.48</v>
@@ -3991,7 +4191,7 @@
         <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H27">
         <v>0.60599999999999998</v>
@@ -4030,6 +4230,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
+      <c r="U27" t="s">
+        <v>284</v>
+      </c>
       <c r="V27">
         <f t="shared" si="2"/>
         <v>5.68</v>
@@ -4059,7 +4262,7 @@
         <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H28">
         <v>0.30599999999999999</v>
@@ -4098,6 +4301,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
+      <c r="U28" t="s">
+        <v>284</v>
+      </c>
       <c r="V28">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4169,6 +4375,9 @@
         <f t="shared" si="8"/>
         <v>0.25600000000000001</v>
       </c>
+      <c r="U29" t="s">
+        <v>318</v>
+      </c>
       <c r="V29">
         <f t="shared" si="2"/>
         <v>0.25600000000000001</v>
@@ -4201,7 +4410,7 @@
         <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H30">
         <v>1.17</v>
@@ -4243,6 +4452,9 @@
         <f t="shared" si="8"/>
         <v>8.6900000000000013</v>
       </c>
+      <c r="U30" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="V30">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4275,7 +4487,7 @@
         <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H31">
         <v>6.22</v>
@@ -4319,7 +4531,7 @@
         <v>84.828000000000003</v>
       </c>
       <c r="U31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V31">
         <f t="shared" si="2"/>
@@ -4333,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
@@ -4356,13 +4568,13 @@
         <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H32">
         <v>0.65</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -4395,6 +4607,9 @@
         <f t="shared" si="8"/>
         <v>EMPTY</v>
       </c>
+      <c r="U32" t="s">
+        <v>284</v>
+      </c>
       <c r="V32">
         <f t="shared" si="2"/>
         <v>5.2</v>
@@ -4410,7 +4625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4424,13 +4639,13 @@
         <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H33">
         <v>0.65300000000000002</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -4466,6 +4681,9 @@
         <f>IF(ISBLANK(D33),"EMPTY",(H33*R33+IF(D33="yes",4.04,0)))</f>
         <v>EMPTY</v>
       </c>
+      <c r="U33" t="s">
+        <v>284</v>
+      </c>
       <c r="V33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4478,9 +4696,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
         <v>106</v>
@@ -4537,6 +4755,9 @@
         <f t="shared" ref="T34:T65" si="9">IF(ISBLANK(D34),"EMPTY",(I34*R34+IF(D34="yes",4.04,0)))</f>
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="U34" t="s">
+        <v>318</v>
+      </c>
       <c r="V34">
         <f t="shared" ref="V34:V65" si="10">IF(T34="EMPTY",S34,IF(J34="Bottom",S34,IF(U34="DIGIKEY",S34,IF(U34="JLC",T34,IF(T34&lt;S34+0.2,T34,S34)))))</f>
         <v>4.4999999999999998E-2</v>
@@ -4549,9 +4770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
@@ -4578,7 +4799,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -4611,6 +4832,9 @@
         <f t="shared" si="9"/>
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="U35" t="s">
+        <v>284</v>
+      </c>
       <c r="V35">
         <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
@@ -4626,7 +4850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -4685,6 +4909,9 @@
         <f t="shared" si="9"/>
         <v>7.2000000000000008E-2</v>
       </c>
+      <c r="U36" t="s">
+        <v>318</v>
+      </c>
       <c r="V36">
         <f t="shared" si="10"/>
         <v>7.2000000000000008E-2</v>
@@ -4697,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -4708,7 +4935,7 @@
         <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" t="s">
         <v>225</v>
@@ -4753,6 +4980,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U37" t="s">
+        <v>284</v>
+      </c>
       <c r="V37">
         <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
@@ -4768,7 +4998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -4827,6 +5057,9 @@
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
+      <c r="U38" t="s">
+        <v>318</v>
+      </c>
       <c r="V38">
         <f t="shared" si="10"/>
         <v>0.02</v>
@@ -4839,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -4895,6 +5128,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U39" t="s">
+        <v>284</v>
+      </c>
       <c r="V39">
         <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
@@ -4910,7 +5146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -4966,6 +5202,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U40" t="s">
+        <v>284</v>
+      </c>
       <c r="V40">
         <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
@@ -4981,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -4992,13 +5231,13 @@
         <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H41">
         <v>0.70499999999999996</v>
@@ -5037,6 +5276,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U41" t="s">
+        <v>284</v>
+      </c>
       <c r="V41">
         <f t="shared" si="10"/>
         <v>7.05</v>
@@ -5052,7 +5294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -5111,6 +5353,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U42" t="s">
+        <v>284</v>
+      </c>
       <c r="V42">
         <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
@@ -5126,7 +5371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -5185,6 +5430,9 @@
         <f t="shared" si="9"/>
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="U43" t="s">
+        <v>318</v>
+      </c>
       <c r="V43">
         <f t="shared" si="10"/>
         <v>3.5999999999999997E-2</v>
@@ -5196,8 +5444,15 @@
       <c r="X43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB43" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD43">
+        <f>SUM(AC44:AC47)</f>
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -5256,6 +5511,9 @@
         <f t="shared" si="9"/>
         <v>1.4E-2</v>
       </c>
+      <c r="U44" t="s">
+        <v>318</v>
+      </c>
       <c r="V44">
         <f t="shared" si="10"/>
         <v>1.4E-2</v>
@@ -5267,8 +5525,14 @@
       <c r="X44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB44" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC44">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -5327,6 +5591,9 @@
         <f t="shared" si="9"/>
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="U45" t="s">
+        <v>318</v>
+      </c>
       <c r="V45">
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
@@ -5338,8 +5605,14 @@
       <c r="X45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB45" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC45">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5356,7 +5629,7 @@
         <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G46" s="5">
         <v>0.15</v>
@@ -5398,6 +5671,9 @@
         <f t="shared" si="9"/>
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="U46" t="s">
+        <v>318</v>
+      </c>
       <c r="V46">
         <f t="shared" si="10"/>
         <v>8.9999999999999993E-3</v>
@@ -5409,8 +5685,14 @@
       <c r="X46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB46" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC46">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -5469,6 +5751,9 @@
         <f t="shared" si="9"/>
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="U47" t="s">
+        <v>318</v>
+      </c>
       <c r="V47">
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
@@ -5480,8 +5765,14 @@
       <c r="X47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB47" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC47">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -5510,7 +5801,7 @@
         <v>1E-3</v>
       </c>
       <c r="J48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -5543,6 +5834,9 @@
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
+      <c r="U48" t="s">
+        <v>284</v>
+      </c>
       <c r="V48">
         <f t="shared" si="10"/>
         <v>0.45999999999999996</v>
@@ -5587,7 +5881,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="J49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -5620,6 +5914,9 @@
         <f t="shared" si="9"/>
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="U49" t="s">
+        <v>284</v>
+      </c>
       <c r="V49">
         <f t="shared" si="10"/>
         <v>0.22999999999999998</v>
@@ -5635,11 +5932,9 @@
         <v>10</v>
       </c>
       <c r="AB49" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>62.04</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="AC49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
@@ -5671,7 +5966,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -5704,6 +5999,9 @@
         <f t="shared" si="9"/>
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="U50" t="s">
+        <v>284</v>
+      </c>
       <c r="V50">
         <f t="shared" si="10"/>
         <v>0.66</v>
@@ -5722,7 +6020,7 @@
         <v>268</v>
       </c>
       <c r="AC50" s="3">
-        <v>10</v>
+        <v>33.65</v>
       </c>
       <c r="AF50" s="3"/>
     </row>
@@ -5785,6 +6083,9 @@
         <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
+      <c r="U51" t="s">
+        <v>318</v>
+      </c>
       <c r="V51">
         <f t="shared" si="10"/>
         <v>0.01</v>
@@ -5800,7 +6101,7 @@
         <v>269</v>
       </c>
       <c r="AC51" s="3">
-        <v>10.59</v>
+        <v>10.58</v>
       </c>
       <c r="AF51" s="3"/>
     </row>
@@ -5863,6 +6164,9 @@
         <f t="shared" si="9"/>
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="U52" t="s">
+        <v>318</v>
+      </c>
       <c r="V52">
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
@@ -5878,7 +6182,7 @@
         <v>270</v>
       </c>
       <c r="AC52" s="3">
-        <v>81.3</v>
+        <v>66.88</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AF52" s="3"/>
@@ -5942,6 +6246,9 @@
         <f t="shared" si="9"/>
         <v>2.7E-2</v>
       </c>
+      <c r="U53" t="s">
+        <v>318</v>
+      </c>
       <c r="V53">
         <f t="shared" si="10"/>
         <v>2.7E-2</v>
@@ -5954,14 +6261,14 @@
         <v>0</v>
       </c>
       <c r="AB53" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="AC53" s="3">
-        <v>52.52</v>
-      </c>
-      <c r="AD53" s="6">
-        <f>W70</f>
-        <v>106.99392000000002</v>
+        <v>50.76</v>
+      </c>
+      <c r="AD53" s="6"/>
+      <c r="AE53" t="s">
+        <v>345</v>
       </c>
       <c r="AF53" s="3"/>
     </row>
@@ -5979,13 +6286,13 @@
         <v>163</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H54">
         <v>4.0670000000000002</v>
       </c>
       <c r="J54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -6018,6 +6325,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U54" t="s">
+        <v>284</v>
+      </c>
       <c r="V54">
         <f t="shared" si="10"/>
         <v>38.4</v>
@@ -6033,14 +6343,9 @@
         <v>10</v>
       </c>
       <c r="Z54" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>6.82</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="AC54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
@@ -6057,13 +6362,13 @@
         <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H55">
         <v>0.83</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -6096,6 +6401,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U55" t="s">
+        <v>284</v>
+      </c>
       <c r="V55">
         <f t="shared" si="10"/>
         <v>8.2999999999999989</v>
@@ -6111,10 +6419,10 @@
         <v>10</v>
       </c>
       <c r="AB55" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AC55" s="3">
-        <v>0.57999999999999996</v>
+        <v>5.68</v>
       </c>
       <c r="AF55" s="3"/>
     </row>
@@ -6171,6 +6479,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U56" t="s">
+        <v>284</v>
+      </c>
       <c r="V56">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6183,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="Z56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AB56" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="AC56" s="3">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AF56" s="3"/>
     </row>
@@ -6253,7 +6564,7 @@
         <v>13.010000000000002</v>
       </c>
       <c r="U57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V57">
         <f t="shared" si="10"/>
@@ -6267,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="AB57" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AC57" s="3">
-        <v>60.96</v>
+        <v>0.65</v>
       </c>
       <c r="AF57" s="3"/>
     </row>
@@ -6288,7 +6599,7 @@
         <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H58">
         <v>2.34</v>
@@ -6327,6 +6638,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U58" t="s">
+        <v>284</v>
+      </c>
       <c r="V58">
         <f t="shared" si="10"/>
         <v>16.38</v>
@@ -6342,11 +6656,10 @@
         <v>7</v>
       </c>
       <c r="AB58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AC58" s="3">
-        <f>SUM(AC49:AC51)+AD53+SUM(AC54:AC57)</f>
-        <v>258.63391999999999</v>
+        <v>60.88</v>
       </c>
       <c r="AF58" s="3"/>
     </row>
@@ -6370,7 +6683,7 @@
         <v>262</v>
       </c>
       <c r="G59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H59">
         <v>0.45600000000000002</v>
@@ -6409,6 +6722,9 @@
         <f t="shared" si="9"/>
         <v>5.4790000000000001</v>
       </c>
+      <c r="U59" t="s">
+        <v>284</v>
+      </c>
       <c r="V59">
         <f t="shared" si="10"/>
         <v>4.4800000000000004</v>
@@ -6424,11 +6740,11 @@
         <v>10</v>
       </c>
       <c r="AB59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AC59" s="3">
-        <f>0.12*AC58</f>
-        <v>31.036070399999996</v>
+        <f>SUM(AC44:AC58)</f>
+        <v>291.61</v>
       </c>
       <c r="AF59" s="3"/>
     </row>
@@ -6452,7 +6768,7 @@
         <v>209</v>
       </c>
       <c r="G60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H60">
         <v>13.505000000000001</v>
@@ -6494,6 +6810,9 @@
         <f t="shared" si="9"/>
         <v>161.34</v>
       </c>
+      <c r="U60" t="s">
+        <v>284</v>
+      </c>
       <c r="V60">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6506,13 +6825,14 @@
         <v>0</v>
       </c>
       <c r="Z60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AB60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC60" s="3">
-        <v>17.5</v>
+        <f>0.12*AC59</f>
+        <v>34.993200000000002</v>
       </c>
       <c r="AF60" s="3"/>
     </row>
@@ -6533,10 +6853,10 @@
         <v>186</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H61" s="8">
         <v>2.31</v>
@@ -6575,6 +6895,9 @@
         <f t="shared" si="9"/>
         <v>7.0299999999999994</v>
       </c>
+      <c r="U61" t="s">
+        <v>318</v>
+      </c>
       <c r="V61" s="8">
         <f t="shared" si="10"/>
         <v>7.0299999999999994</v>
@@ -6586,12 +6909,11 @@
       <c r="X61" s="8">
         <v>1</v>
       </c>
-      <c r="AB61" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC61" s="10">
-        <f>SUM(AC58:AC60)</f>
-        <v>307.16999039999996</v>
+      <c r="AB61" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>17.5</v>
       </c>
       <c r="AF61" s="10"/>
     </row>
@@ -6654,6 +6976,9 @@
         <f t="shared" si="9"/>
         <v>EMPTY</v>
       </c>
+      <c r="U62" t="s">
+        <v>284</v>
+      </c>
       <c r="V62">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6666,9 +6991,15 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC62" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="AB62" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC62" s="10">
+        <f>SUM(AC59:AC61)</f>
+        <v>344.10320000000002</v>
+      </c>
       <c r="AF62" s="3"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
@@ -6691,7 +7022,7 @@
         <v>208</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H63">
         <v>4.03</v>
@@ -6730,6 +7061,9 @@
         <f t="shared" si="9"/>
         <v>16.581</v>
       </c>
+      <c r="U63" t="s">
+        <v>318</v>
+      </c>
       <c r="V63">
         <f t="shared" si="10"/>
         <v>16.581</v>
@@ -6741,10 +7075,7 @@
       <c r="X63">
         <v>0</v>
       </c>
-      <c r="AC63" s="3">
-        <f>AC61+Z70</f>
-        <v>527.28199040000004</v>
-      </c>
+      <c r="AC63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
@@ -6767,7 +7098,7 @@
         <v>207</v>
       </c>
       <c r="G64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H64">
         <v>0.28699999999999998</v>
@@ -6806,6 +7137,9 @@
         <f t="shared" si="9"/>
         <v>6.2759999999999998</v>
       </c>
+      <c r="U64" t="s">
+        <v>284</v>
+      </c>
       <c r="V64">
         <f t="shared" si="10"/>
         <v>4.5919999999999996</v>
@@ -6820,16 +7154,13 @@
       <c r="Y64">
         <v>20</v>
       </c>
-      <c r="AB64" t="s">
-        <v>278</v>
-      </c>
       <c r="AC64" s="3">
-        <f>AC63/10</f>
-        <v>52.728199040000007</v>
+        <f>AC62+Z70</f>
+        <v>564.2152000000001</v>
       </c>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
@@ -6849,7 +7180,7 @@
         <v>206</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H65" s="8">
         <v>0.70499999999999996</v>
@@ -6888,6 +7219,9 @@
         <f t="shared" si="9"/>
         <v>11.656000000000001</v>
       </c>
+      <c r="U65" t="s">
+        <v>284</v>
+      </c>
       <c r="V65" s="8">
         <f t="shared" si="10"/>
         <v>6.8</v>
@@ -6902,8 +7236,15 @@
       <c r="Y65" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB65" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC65" s="3">
+        <f>AC64/10</f>
+        <v>56.421520000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -6923,7 +7264,7 @@
         <v>205</v>
       </c>
       <c r="G66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H66">
         <v>0.71499999999999997</v>
@@ -6963,7 +7304,7 @@
         <v>6.319</v>
       </c>
       <c r="U66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V66">
         <f t="shared" ref="V66" si="16">IF(T66="EMPTY",S66,IF(J66="Bottom",S66,IF(U66="DIGIKEY",S66,IF(U66="JLC",T66,IF(T66&lt;S66+0.2,T66,S66)))))</f>
@@ -6983,25 +7324,27 @@
         <f>COUNTIF(W2:W66,"DIGIKEY")-5</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67" t="s">
         <v>334</v>
-      </c>
-      <c r="B67" t="s">
-        <v>336</v>
-      </c>
-      <c r="C67" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>336</v>
-      </c>
-      <c r="F67" t="s">
-        <v>335</v>
       </c>
       <c r="G67" s="5">
         <v>6.1199999999999997E-2</v>
@@ -7044,7 +7387,7 @@
         <v>13.399999999999999</v>
       </c>
       <c r="U67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V67">
         <f t="shared" ref="V67" si="22">IF(T67="EMPTY",S67,IF(J67="Bottom",S67,IF(U67="DIGIKEY",S67,IF(U67="JLC",T67,IF(T67&lt;S67+0.2,T67,S67)))))</f>
@@ -7061,7 +7404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>30</v>
@@ -7071,7 +7414,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="T70" t="s">
         <v>265</v>
       </c>
@@ -7094,32 +7437,32 @@
         <v>168.03584000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="T71" t="s">
         <v>266</v>
       </c>
       <c r="W71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="W73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
         <v>70.08</v>
       </c>
       <c r="Z74" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Z75">
         <f>Z69/8</f>
         <v>38</v>
@@ -7128,11 +7471,5286 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="S2:T67">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1 A1:Y67">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D395E-8DB0-4FF1-8A37-8D882C8CC6E0}">
+  <dimension ref="A1:AF75"/>
+  <sheetViews>
+    <sheetView topLeftCell="O47" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AD68" sqref="AD68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="19" max="21" width="8.88671875" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>319</v>
+      </c>
+      <c r="R1" t="s">
+        <v>287</v>
+      </c>
+      <c r="S1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" t="s">
+        <v>251</v>
+      </c>
+      <c r="U1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="I2">
+        <v>1.0630500000000001</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>L2-K2</f>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>IF(M2*8*G2&lt;M2*10*H2,M2*8,M2*10)</f>
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <f>IF(W2="DIGIKEY",O2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>IFP2*8</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>M2*10</f>
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S65" si="0">IF(O2&gt;=10,H2*O2,G2*O2)</f>
+        <v>29.42</v>
+      </c>
+      <c r="T2">
+        <f>IF(ISBLANK(D2),"EMPTY",(I2*R2+IF(D2="yes",4.04,0)))</f>
+        <v>25.301000000000002</v>
+      </c>
+      <c r="U2" t="s">
+        <v>318</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:V65" si="1">IF(T2="EMPTY",S2,IF(J2="Bottom",S2,IF(U2="DIGIKEY",S2,IF(U2="JLC",T2,IF(T2&lt;S2+0.2,T2,S2)))))</f>
+        <v>25.301000000000002</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" ref="W2:W65" si="2">IF(T2="EMPTY","DIGIKEY",IF(J2="Bottom","DIGIKEY",IF(U2="DIGIKEY",U2,IF(U2="JLC",U2,IF(T2&lt;S2+0.2,"JLC","DIGIKEY")))))</f>
+        <v>JLC</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I3">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="3">L3-K3</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="4">IF(M3*8*G3&lt;M3*10*H3,M3*8,M3*10)</f>
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="5">IF(W3="DIGIKEY",O3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="6">M3*8</f>
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="7">M3*10</f>
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>10.14</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T32" si="8">IF(ISBLANK(D3),"EMPTY",(I3*R3+IF(D3="yes",4.04,0)))</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="U3" t="s">
+        <v>318</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>120.48</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U4" t="s">
+        <v>284</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>120.48</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4"/>
+      <c r="Z4" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="8"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>318</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="8"/>
+        <v>0.315</v>
+      </c>
+      <c r="U6" t="s">
+        <v>318</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0.315</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.156</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="8"/>
+        <v>4.4359999999999999</v>
+      </c>
+      <c r="U7" t="s">
+        <v>284</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8">
+        <v>0.317</v>
+      </c>
+      <c r="I8">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>12.68</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>2.58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>318</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I9">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="U9" t="s">
+        <v>318</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="U11" t="s">
+        <v>284</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="H12">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>4.08</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="U12" t="s">
+        <v>284</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>4.08</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>0.104</v>
+      </c>
+      <c r="U13" t="s">
+        <v>318</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0.104</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="H14">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I14">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>4.96</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>4.7930000000000001</v>
+      </c>
+      <c r="U14" t="s">
+        <v>284</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>4.96</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15">
+        <v>0.623</v>
+      </c>
+      <c r="I15">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="U15" t="s">
+        <v>284</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>5.92</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.1038</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="8"/>
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="U16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="1"/>
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="W16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="H17">
+        <v>0.216</v>
+      </c>
+      <c r="I17">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>0.12200000000000001</v>
+      </c>
+      <c r="U17" t="s">
+        <v>318</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>0.12200000000000001</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I18">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>4.74</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>4.8730000000000002</v>
+      </c>
+      <c r="U18" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>4.8730000000000002</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="H19">
+        <v>0.216</v>
+      </c>
+      <c r="I19">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="U19" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="H20">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>9.5999999999999988E-2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>318</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999988E-2</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="H21">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I21">
+        <v>1.95E-2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="8"/>
+        <v>0.39</v>
+      </c>
+      <c r="U21" t="s">
+        <v>318</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22">
+        <v>0.436</v>
+      </c>
+      <c r="I22">
+        <v>0.63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U22" t="s">
+        <v>284</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H23">
+        <v>0.122</v>
+      </c>
+      <c r="I23">
+        <v>0.1038</v>
+      </c>
+      <c r="J23" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="8"/>
+        <v>1.038</v>
+      </c>
+      <c r="U23" t="s">
+        <v>284</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="I24" s="8">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>12.32</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="8"/>
+        <v>5.032</v>
+      </c>
+      <c r="U24" t="s">
+        <v>318</v>
+      </c>
+      <c r="V24" s="8">
+        <f t="shared" si="1"/>
+        <v>5.032</v>
+      </c>
+      <c r="W24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.31</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U25" t="s">
+        <v>284</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="I26">
+        <v>1.61</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>12.48</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U26" t="s">
+        <v>284</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>12.48</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.31</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>5.68</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U27" t="s">
+        <v>284</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>5.68</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U28" t="s">
+        <v>284</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I29">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="U29" t="s">
+        <v>318</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30">
+        <v>1.17</v>
+      </c>
+      <c r="I30">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>11.52</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="8"/>
+        <v>8.6900000000000013</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>11.52</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31">
+        <v>6.22</v>
+      </c>
+      <c r="I31">
+        <v>4.0393999999999997</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>99.52</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>84.828000000000003</v>
+      </c>
+      <c r="U31" t="s">
+        <v>284</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>99.52</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32">
+        <v>0.65</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="8"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U32" t="s">
+        <v>284</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>6.08</v>
+      </c>
+      <c r="T33" t="str">
+        <f>IF(ISBLANK(D33),"EMPTY",(H33*R33+IF(D33="yes",4.04,0)))</f>
+        <v>EMPTY</v>
+      </c>
+      <c r="U33" t="s">
+        <v>284</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>6.08</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H34">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I34">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T67" si="9">IF(ISBLANK(D34),"EMPTY",(I34*R34+IF(D34="yes",4.04,0)))</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>318</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H35">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I35">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U35" t="s">
+        <v>284</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H36">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I36">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="U36" t="s">
+        <v>318</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I37">
+        <v>1E-3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U37" t="s">
+        <v>284</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I38">
+        <v>1E-3</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="U38" t="s">
+        <v>318</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H39">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I39">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U39" t="s">
+        <v>284</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H40">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I40">
+        <v>1E-3</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U40" t="s">
+        <v>284</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>323</v>
+      </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H41">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I41">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>7.05</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U41" t="s">
+        <v>284</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>7.05</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H42">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I42">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U42" t="s">
+        <v>284</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H43">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I43">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U43" t="s">
+        <v>318</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD43">
+        <f>SUM(AC44:AC47)</f>
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H44">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I44">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="9"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="U44" t="s">
+        <v>318</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC44">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H45">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I45">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U45" t="s">
+        <v>318</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC45">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H46">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I46">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U46" t="s">
+        <v>318</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC46">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H47">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I47">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U47" t="s">
+        <v>318</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC47">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H48">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I48">
+        <v>1E-3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="U48" t="s">
+        <v>284</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H49">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I49">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>280</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U49" t="s">
+        <v>284</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>10</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC49" s="3"/>
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H50">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I50">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>280</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="9"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U50" t="s">
+        <v>284</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>33.65</v>
+      </c>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H51">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I51">
+        <v>1E-3</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="U51" t="s">
+        <v>318</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>10.58</v>
+      </c>
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H52">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I52">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U52" t="s">
+        <v>318</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>66.88</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H53">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I53">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="9"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="U53" t="s">
+        <v>318</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>50.76</v>
+      </c>
+      <c r="AD53" s="6"/>
+      <c r="AE53" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54">
+        <v>4.0670000000000002</v>
+      </c>
+      <c r="J54" t="s">
+        <v>280</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>38.4</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U54" t="s">
+        <v>284</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>10</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC54" s="3"/>
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55">
+        <v>0.83</v>
+      </c>
+      <c r="J55" t="s">
+        <v>280</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U55" t="s">
+        <v>284</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>10</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="5">
+        <v>13.35</v>
+      </c>
+      <c r="H56">
+        <v>13.35</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>106.8</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U56" t="s">
+        <v>284</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>106.8</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="H57">
+        <v>1.06</v>
+      </c>
+      <c r="I57">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>8.48</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="9"/>
+        <v>13.010000000000002</v>
+      </c>
+      <c r="U57" t="s">
+        <v>318</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>13.010000000000002</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58">
+        <v>2.34</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>18.72</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U58" t="s">
+        <v>284</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>18.72</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>7</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>60.88</v>
+      </c>
+      <c r="AF58" s="3"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" t="s">
+        <v>310</v>
+      </c>
+      <c r="H59">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I59">
+        <v>0.1439</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="9"/>
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="U59" t="s">
+        <v>284</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC59" s="3">
+        <f>SUM(AC44:AC58)</f>
+        <v>291.61</v>
+      </c>
+      <c r="AF59" s="3"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" t="s">
+        <v>209</v>
+      </c>
+      <c r="G60" t="s">
+        <v>311</v>
+      </c>
+      <c r="H60">
+        <v>13.505000000000001</v>
+      </c>
+      <c r="I60">
+        <v>15.73</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>119.52</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="9"/>
+        <v>161.34</v>
+      </c>
+      <c r="U60" t="s">
+        <v>284</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>119.52</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC60" s="3">
+        <f>0.12*AC59</f>
+        <v>34.993200000000002</v>
+      </c>
+      <c r="AF60" s="3"/>
+    </row>
+    <row r="61" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" t="s">
+        <v>338</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R61" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>20.32</v>
+      </c>
+      <c r="T61" s="8">
+        <f t="shared" si="9"/>
+        <v>7.0299999999999994</v>
+      </c>
+      <c r="U61" t="s">
+        <v>318</v>
+      </c>
+      <c r="V61" s="8">
+        <f t="shared" si="1"/>
+        <v>7.0299999999999994</v>
+      </c>
+      <c r="W61" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X61" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="AF61" s="10"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="5">
+        <v>4.82</v>
+      </c>
+      <c r="H62">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="I62">
+        <v>1.0455000000000001</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>38.56</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="9"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="U62" t="s">
+        <v>284</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>38.56</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB62" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC62" s="10">
+        <f>SUM(AC59:AC61)</f>
+        <v>344.10320000000002</v>
+      </c>
+      <c r="AF62" s="3"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63">
+        <v>4.03</v>
+      </c>
+      <c r="I63">
+        <v>1.2541</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>32.24</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="9"/>
+        <v>16.581</v>
+      </c>
+      <c r="U63" t="s">
+        <v>318</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>16.581</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="2"/>
+        <v>JLC</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3"/>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" t="s">
+        <v>298</v>
+      </c>
+      <c r="H64">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.1118</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="9"/>
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="U64" t="s">
+        <v>284</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X64">
+        <v>2</v>
+      </c>
+      <c r="Y64">
+        <v>20</v>
+      </c>
+      <c r="AC64" s="3">
+        <f>AC62+Z70</f>
+        <v>1080.05744</v>
+      </c>
+      <c r="AF64" s="3"/>
+    </row>
+    <row r="65" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="T65" s="8">
+        <f t="shared" si="9"/>
+        <v>11.656000000000001</v>
+      </c>
+      <c r="U65" t="s">
+        <v>284</v>
+      </c>
+      <c r="V65" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="W65" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC65" s="3">
+        <f>AC64/10</f>
+        <v>108.00574400000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" t="s">
+        <v>315</v>
+      </c>
+      <c r="H66">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I66">
+        <v>0.22789999999999999</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66:S67" si="10">IF(O66&gt;=10,H66*O66,G66*O66)</f>
+        <v>6.88</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="9"/>
+        <v>6.319</v>
+      </c>
+      <c r="U66" t="s">
+        <v>284</v>
+      </c>
+      <c r="V66">
+        <f t="shared" ref="V66:V67" si="11">IF(T66="EMPTY",S66,IF(J66="Bottom",S66,IF(U66="DIGIKEY",S66,IF(U66="JLC",T66,IF(T66&lt;S66+0.2,T66,S66)))))</f>
+        <v>6.88</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" ref="W66:W98" si="12">IF(T66="EMPTY","DIGIKEY",IF(J66="Bottom","DIGIKEY",IF(U66="DIGIKEY",U66,IF(U66="JLC",U66,IF(T66&lt;S66+0.2,"JLC","DIGIKEY")))))</f>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>10</v>
+      </c>
+      <c r="Z66">
+        <f>COUNTIF(W2:W66,"DIGIKEY")-5</f>
+        <v>30</v>
+      </c>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" s="5">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.45</v>
+      </c>
+      <c r="I67">
+        <v>0.312</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M68" si="13">L67-K67</f>
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67" si="14">IF(M67*8*G67&lt;M67*10*H67,M67*8,M67*10)</f>
+        <v>24</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67" si="15">IF(W67="DIGIKEY",O67,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67" si="16">M67*8</f>
+        <v>24</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67" si="17">M67*10</f>
+        <v>30</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="10"/>
+        <v>10.8</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="9"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="U67" t="s">
+        <v>284</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="11"/>
+        <v>10.8</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="12"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X67">
+        <v>3</v>
+      </c>
+      <c r="Y67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W69">
+        <f>COUNTIF(W2:W66,"JLC")</f>
+        <v>30</v>
+      </c>
+      <c r="Z69">
+        <f>SUMIF(W2:W66,"DIGIKEY",Q2:Q66)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T70" t="s">
+        <v>265</v>
+      </c>
+      <c r="V70">
+        <f>SUM(V2:V67)</f>
+        <v>740.69099999999992</v>
+      </c>
+      <c r="W70" s="7">
+        <f>SUMIF(W2:W67,"JLC",V2:V67)*1.28</f>
+        <v>106.99392000000002</v>
+      </c>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70">
+        <f>SUMIF(W2:W67,"DIGIKEY",V2:V67)*1.12</f>
+        <v>735.95424000000014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T71" t="s">
+        <v>266</v>
+      </c>
+      <c r="W71" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W73" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V74">
+        <f>V60+V56+V31++V4</f>
+        <v>446.32</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z75">
+        <f>Z69/8</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="S2:T67">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1 V1:Y67 A1:T67">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
     </cfRule>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216E980-37B3-433F-A3B9-BB413714E1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2BF1A8-128A-4131-A368-7537C58D3C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,12 +1347,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1797,14 +1791,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2186,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12586,7 +12580,7 @@
         <v>6.88</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" ref="W66:W98" si="12">IF(T66="EMPTY","DIGIKEY",IF(J66="Bottom","DIGIKEY",IF(U66="DIGIKEY",U66,IF(U66="JLC",U66,IF(T66&lt;S66+0.2,"JLC","DIGIKEY")))))</f>
+        <f t="shared" ref="W66:W67" si="12">IF(T66="EMPTY","DIGIKEY",IF(J66="Bottom","DIGIKEY",IF(U66="DIGIKEY",U66,IF(U66="JLC",U66,IF(T66&lt;S66+0.2,"JLC","DIGIKEY")))))</f>
         <v>DIGIKEY</v>
       </c>
       <c r="X66">
@@ -12634,7 +12628,7 @@
         <v>3</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M68" si="13">L67-K67</f>
+        <f t="shared" ref="M67" si="13">L67-K67</f>
         <v>3</v>
       </c>
       <c r="O67">
@@ -12740,18 +12734,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:Y67">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S2:T67">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1 V1:Y67 A1:T67">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U67">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="Z1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2BF1A8-128A-4131-A368-7537C58D3C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF74D3-E88C-498A-BAB7-4594550DB3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
@@ -2180,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF74D3-E88C-498A-BAB7-4594550DB3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24C1761-5AD1-495B-AA24-F35A0675B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="347">
   <si>
     <t>Reference</t>
   </si>
@@ -1198,6 +1198,9 @@
   </si>
   <si>
     <t>&lt;- feeders loading fee 2.02 per component for standard (if we choose black it has to be standard not economic)</t>
+  </si>
+  <si>
+    <t>SMBJ5338B-TP</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2184,7 @@
   <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3504,7 +3507,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -3512,15 +3515,6 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" t="s">
-        <v>296</v>
-      </c>
       <c r="H18">
         <v>0.47399999999999998</v>
       </c>
@@ -3536,7 +3530,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
@@ -3552,7 +3546,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <f t="shared" si="8"/>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24C1761-5AD1-495B-AA24-F35A0675B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDC095-B958-46AB-A206-4DA829032BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="348">
   <si>
     <t>Reference</t>
   </si>
@@ -1201,6 +1201,9 @@
   </si>
   <si>
     <t>SMBJ5338B-TP</t>
+  </si>
+  <si>
+    <t>PCB economic</t>
   </si>
 </sst>
 </file>
@@ -2181,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="P43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AD72" sqref="AD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,6 +2211,7 @@
     <col min="28" max="28" width="8.88671875" customWidth="1"/>
     <col min="29" max="29" width="12.6640625" customWidth="1"/>
     <col min="30" max="30" width="13.77734375" customWidth="1"/>
+    <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -4613,7 +4617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -4758,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -4912,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -5208,7 +5212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -5439,8 +5443,15 @@
         <f>SUM(AC44:AC47)</f>
         <v>61.95</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF43" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG43">
+        <f>SUM(AF44:AF47)</f>
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -5519,8 +5530,11 @@
       <c r="AC44">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF44">
+        <v>32.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -5599,8 +5613,11 @@
       <c r="AC45">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5679,8 +5696,11 @@
       <c r="AC46">
         <v>18.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF46">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -5759,8 +5779,11 @@
       <c r="AC47">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF47">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -6010,7 +6033,10 @@
       <c r="AC50" s="3">
         <v>33.65</v>
       </c>
-      <c r="AF50" s="3"/>
+      <c r="AF50" s="3">
+        <f>10.78</f>
+        <v>10.78</v>
+      </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -6091,7 +6117,9 @@
       <c r="AC51" s="3">
         <v>10.58</v>
       </c>
-      <c r="AF51" s="3"/>
+      <c r="AF51" s="3">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -6173,7 +6201,9 @@
         <v>66.88</v>
       </c>
       <c r="AD52" s="2"/>
-      <c r="AF52" s="3"/>
+      <c r="AF52" s="3">
+        <v>69.260000000000005</v>
+      </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -6258,7 +6288,9 @@
       <c r="AE53" t="s">
         <v>345</v>
       </c>
-      <c r="AF53" s="3"/>
+      <c r="AF53" s="3">
+        <v>30.96</v>
+      </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -6412,7 +6444,9 @@
       <c r="AC55" s="3">
         <v>5.68</v>
       </c>
-      <c r="AF55" s="3"/>
+      <c r="AF55" s="3">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -6490,7 +6524,9 @@
       <c r="AC56" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AF56" s="3"/>
+      <c r="AF56" s="3">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -6571,7 +6607,9 @@
       <c r="AC57" s="3">
         <v>0.65</v>
       </c>
-      <c r="AF57" s="3"/>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -6649,7 +6687,9 @@
       <c r="AC58" s="3">
         <v>60.88</v>
       </c>
-      <c r="AF58" s="3"/>
+      <c r="AF58" s="3">
+        <v>60.88</v>
+      </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -6734,7 +6774,10 @@
         <f>SUM(AC44:AC58)</f>
         <v>291.61</v>
       </c>
-      <c r="AF59" s="3"/>
+      <c r="AF59" s="3">
+        <f>SUM(AF44:AF58)</f>
+        <v>229.42000000000004</v>
+      </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -6822,7 +6865,10 @@
         <f>0.12*AC59</f>
         <v>34.993200000000002</v>
       </c>
-      <c r="AF60" s="3"/>
+      <c r="AF60" s="3">
+        <f>0.12*AF59</f>
+        <v>27.530400000000004</v>
+      </c>
     </row>
     <row r="61" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
@@ -6903,7 +6949,9 @@
       <c r="AC61" s="3">
         <v>17.5</v>
       </c>
-      <c r="AF61" s="10"/>
+      <c r="AF61" s="3">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -6988,7 +7036,10 @@
         <f>SUM(AC59:AC61)</f>
         <v>344.10320000000002</v>
       </c>
-      <c r="AF62" s="3"/>
+      <c r="AF62" s="10">
+        <f>SUM(AF59:AF61)</f>
+        <v>274.45040000000006</v>
+      </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -7143,12 +7194,15 @@
         <v>20</v>
       </c>
       <c r="AC64" s="3">
-        <f>AC62+Z70</f>
+        <f>AC62+$Z$70</f>
         <v>564.2152000000001</v>
       </c>
-      <c r="AF64" s="3"/>
-    </row>
-    <row r="65" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF64" s="3">
+        <f>AF62+$Z$70</f>
+        <v>494.56240000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
@@ -7231,8 +7285,12 @@
         <f>AC64/10</f>
         <v>56.421520000000008</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AF65" s="3">
+        <f>AF64/10</f>
+        <v>49.456240000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -7315,7 +7373,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7392,7 +7450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>30</v>
@@ -7402,7 +7460,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="T70" t="s">
         <v>265</v>
       </c>
@@ -7425,7 +7483,7 @@
         <v>168.03584000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="T71" t="s">
         <v>266</v>
       </c>
@@ -7436,12 +7494,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W73" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
         <v>70.08</v>
@@ -7450,10 +7508,16 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Z75">
         <f>Z69/8</f>
         <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X80">
+        <f>30*2</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7463,7 +7527,7 @@
       <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1 A1:Y67">
+  <conditionalFormatting sqref="Z1 A1:Y67 W68">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
     </cfRule>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDC095-B958-46AB-A206-4DA829032BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131F4C7-FB07-4868-A0F5-A35475901587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="350">
   <si>
     <t>Reference</t>
   </si>
@@ -1204,6 +1204,12 @@
   </si>
   <si>
     <t>PCB economic</t>
+  </si>
+  <si>
+    <t>C2937389</t>
+  </si>
+  <si>
+    <t>LMJ12MF1P0R008</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,6 +1359,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="HarmonyOS Sans SC"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1721,7 +1732,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1740,6 +1751,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2186,11 +2198,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="AD72" sqref="AD72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
@@ -2214,7 +2226,7 @@
     <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>285</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -3192,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3571,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3719,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3870,7 +3882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4169,7 +4181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -4762,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -5138,7 +5150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -5212,7 +5224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -5223,10 +5235,10 @@
         <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>323</v>
-      </c>
-      <c r="F41" t="s">
-        <v>221</v>
+        <v>349</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="G41" t="s">
         <v>306</v>
@@ -5286,7 +5298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -5451,7 +5463,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -5534,7 +5546,7 @@
         <v>32.35</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -5617,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5700,7 +5712,7 @@
         <v>16.71</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -5783,7 +5795,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -5948,7 +5960,7 @@
       <c r="AC49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -6205,7 +6217,7 @@
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -6292,7 +6304,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -6368,7 +6380,7 @@
       <c r="AC54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -6448,7 +6460,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -6528,7 +6540,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -6611,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>60.88</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -6779,7 +6791,7 @@
         <v>229.42000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -6870,7 +6882,7 @@
         <v>27.530400000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" s="8" customFormat="1">
       <c r="A61" s="8" t="s">
         <v>185</v>
       </c>
@@ -6953,7 +6965,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>274.45040000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -7117,7 +7129,7 @@
       <c r="AC63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -7202,7 +7214,7 @@
         <v>494.56240000000008</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" s="8" customFormat="1">
       <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
@@ -7290,7 +7302,7 @@
         <v>49.456240000000008</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -7373,7 +7385,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7450,7 +7462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>30</v>
@@ -7460,7 +7472,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32">
       <c r="T70" t="s">
         <v>265</v>
       </c>
@@ -7483,7 +7495,7 @@
         <v>168.03584000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32">
       <c r="T71" t="s">
         <v>266</v>
       </c>
@@ -7494,12 +7506,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32">
       <c r="W73" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
         <v>70.08</v>
@@ -7508,13 +7520,13 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32">
       <c r="Z75">
         <f>Z69/8</f>
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32">
       <c r="X80">
         <f>30*2</f>
         <v>60</v>
@@ -7527,7 +7539,7 @@
       <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1 A1:Y67 W68">
+  <conditionalFormatting sqref="Z1 A1:Y40 W68 A42:Y67 A41:E41 G41:Y41">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
     </cfRule>
@@ -7545,7 +7557,7 @@
       <selection activeCell="AD68" sqref="AD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
@@ -7568,7 +7580,7 @@
     <col min="30" max="30" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7642,7 +7654,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7716,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -7790,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>285</v>
       </c>
@@ -7859,7 +7871,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -7933,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -8007,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -8087,7 +8099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8161,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -8309,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -8389,7 +8401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -8466,7 +8478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -8540,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8623,7 +8635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -8703,7 +8715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -8780,7 +8792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -8854,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -8928,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -9002,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -9076,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -9150,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -9227,7 +9239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -9307,7 +9319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
@@ -9384,7 +9396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -9455,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -9526,7 +9538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9597,7 +9609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -9665,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -9739,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -9813,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -9893,7 +9905,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -9967,7 +9979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -10035,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -10109,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -10189,7 +10201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -10263,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -10337,7 +10349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -10411,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -10485,7 +10497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -10559,7 +10571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -10633,7 +10645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -10710,7 +10722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -10791,7 +10803,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -10871,7 +10883,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -10951,7 +10963,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -11031,7 +11043,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -11111,7 +11123,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -11191,7 +11203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -11276,7 +11288,7 @@
       <c r="AC49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -11363,7 +11375,7 @@
       </c>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -11444,7 +11456,7 @@
       </c>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -11526,7 +11538,7 @@
       <c r="AD52" s="2"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -11611,7 +11623,7 @@
       </c>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -11687,7 +11699,7 @@
       <c r="AC54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -11765,7 +11777,7 @@
       </c>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -11840,7 +11852,7 @@
       </c>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -11921,7 +11933,7 @@
       </c>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -11996,7 +12008,7 @@
       </c>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -12081,7 +12093,7 @@
       </c>
       <c r="AF59" s="3"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -12166,7 +12178,7 @@
       </c>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" s="8" customFormat="1">
       <c r="A61" s="8" t="s">
         <v>185</v>
       </c>
@@ -12247,7 +12259,7 @@
       </c>
       <c r="AF61" s="10"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -12329,7 +12341,7 @@
       </c>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -12405,7 +12417,7 @@
       <c r="AC63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -12487,7 +12499,7 @@
       </c>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" s="8" customFormat="1">
       <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
@@ -12571,7 +12583,7 @@
         <v>108.00574400000001</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -12654,7 +12666,7 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -12731,7 +12743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>30</v>
@@ -12741,7 +12753,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29">
       <c r="T70" t="s">
         <v>265</v>
       </c>
@@ -12760,7 +12772,7 @@
         <v>735.95424000000014</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29">
       <c r="T71" t="s">
         <v>266</v>
       </c>
@@ -12771,12 +12783,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29">
       <c r="W73" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
         <v>446.32</v>
@@ -12785,7 +12797,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29">
       <c r="Z75">
         <f>Z69/8</f>
         <v>38</v>

--- a/Chicker/POWER_BOARD_BOM_JAN22.xlsx
+++ b/Chicker/POWER_BOARD_BOM_JAN22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\Chicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131F4C7-FB07-4868-A0F5-A35475901587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D384094-DD55-4867-A39F-D7A770E2C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="351">
   <si>
     <t>Reference</t>
   </si>
@@ -1210,6 +1210,9 @@
   </si>
   <si>
     <t>LMJ12MF1P0R008</t>
+  </si>
+  <si>
+    <t>&lt;- real total</t>
   </si>
 </sst>
 </file>
@@ -2196,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG80"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="I49" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AG69" sqref="AG69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2212,11 +2215,11 @@
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="17" width="17.21875" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="17.21875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" hidden="1" customWidth="1"/>
     <col min="19" max="21" width="8.88671875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
     <col min="26" max="26" width="17.88671875" customWidth="1"/>
@@ -2224,6 +2227,7 @@
     <col min="29" max="29" width="12.6640625" customWidth="1"/>
     <col min="30" max="30" width="13.77734375" customWidth="1"/>
     <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -5875,7 +5879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="AC49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:34">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -6380,7 +6384,7 @@
       <c r="AC54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -6623,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -6693,17 +6697,11 @@
       <c r="Y58">
         <v>7</v>
       </c>
-      <c r="AB58" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>60.88</v>
-      </c>
-      <c r="AF58" s="3">
-        <v>60.88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -6780,18 +6778,20 @@
         <v>10</v>
       </c>
       <c r="AB59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC59" s="3">
-        <f>SUM(AC44:AC58)</f>
-        <v>291.61</v>
+        <v>60.88</v>
       </c>
       <c r="AF59" s="3">
-        <f>SUM(AF44:AF58)</f>
-        <v>229.42000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32">
+        <v>60.88</v>
+      </c>
+      <c r="AG59">
+        <f>AG58+61.14</f>
+        <v>281.14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -6871,18 +6871,22 @@
         <v>330</v>
       </c>
       <c r="AB60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC60" s="3">
-        <f>0.12*AC59</f>
-        <v>34.993200000000002</v>
+        <f>SUM(AC44:AC59)</f>
+        <v>291.61</v>
       </c>
       <c r="AF60" s="3">
-        <f>0.12*AF59</f>
-        <v>27.530400000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" s="8" customFormat="1">
+        <f>SUM(AF44:AF59)</f>
+        <v>229.42000000000004</v>
+      </c>
+      <c r="AG60" s="3">
+        <f>AG59</f>
+        <v>281.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" s="8" customFormat="1">
       <c r="A61" s="8" t="s">
         <v>185</v>
       </c>
@@ -6956,16 +6960,24 @@
         <v>1</v>
       </c>
       <c r="AB61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC61" s="3">
-        <v>17.5</v>
-      </c>
+        <f>0.12*AC60</f>
+        <v>34.993200000000002</v>
+      </c>
+      <c r="AD61"/>
+      <c r="AE61"/>
       <c r="AF61" s="3">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32">
+        <f>0.12*AF60</f>
+        <v>27.530400000000004</v>
+      </c>
+      <c r="AG61" s="3">
+        <f>0.12*AG60</f>
+        <v>33.736799999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -7041,19 +7053,22 @@
       <c r="Z62" t="s">
         <v>332</v>
       </c>
-      <c r="AB62" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC62" s="10">
-        <f>SUM(AC59:AC61)</f>
-        <v>344.10320000000002</v>
-      </c>
-      <c r="AF62" s="10">
-        <f>SUM(AF59:AF61)</f>
-        <v>274.45040000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AB62" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -7126,10 +7141,26 @@
       <c r="X63">
         <v>0</v>
       </c>
-      <c r="AC63" s="3"/>
-      <c r="AF63" s="3"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AB63" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC63" s="10">
+        <f>SUM(AC60:AC62)</f>
+        <v>344.10320000000002</v>
+      </c>
+      <c r="AF63" s="10">
+        <f>SUM(AF60:AF62)</f>
+        <v>274.45040000000006</v>
+      </c>
+      <c r="AG63" s="10">
+        <f>SUM(AG60:AG62)</f>
+        <v>332.3768</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -7205,16 +7236,10 @@
       <c r="Y64">
         <v>20</v>
       </c>
-      <c r="AC64" s="3">
-        <f>AC62+$Z$70</f>
-        <v>564.2152000000001</v>
-      </c>
-      <c r="AF64" s="3">
-        <f>AF62+$Z$70</f>
-        <v>494.56240000000008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" s="8" customFormat="1">
+      <c r="AC64" s="3"/>
+      <c r="AF64" s="3"/>
+    </row>
+    <row r="65" spans="1:33" s="8" customFormat="1">
       <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
@@ -7290,19 +7315,23 @@
       <c r="Y65" s="8">
         <v>10</v>
       </c>
-      <c r="AB65" t="s">
-        <v>277</v>
-      </c>
+      <c r="AB65"/>
       <c r="AC65" s="3">
-        <f>AC64/10</f>
-        <v>56.421520000000008</v>
-      </c>
+        <f>AC63+$Z$70</f>
+        <v>564.2152000000001</v>
+      </c>
+      <c r="AD65"/>
+      <c r="AE65"/>
       <c r="AF65" s="3">
-        <f>AF64/10</f>
-        <v>49.456240000000008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32">
+        <f>AF63+$Z$70</f>
+        <v>494.56240000000008</v>
+      </c>
+      <c r="AG65" s="3">
+        <f>AG63+$Z$70</f>
+        <v>552.48880000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -7382,10 +7411,25 @@
         <f>COUNTIF(W2:W66,"DIGIKEY")-5</f>
         <v>30</v>
       </c>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AB66" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC66" s="3">
+        <f>AC65/10</f>
+        <v>56.421520000000008</v>
+      </c>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="3">
+        <f>AF65/10</f>
+        <v>49.456240000000008</v>
+      </c>
+      <c r="AG66" s="3">
+        <f>AG65/10</f>
+        <v>55.248880000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -7461,8 +7505,10 @@
       <c r="Y67">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+    </row>
+    <row r="69" spans="1:33">
       <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>30</v>
@@ -7472,7 +7518,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:33">
       <c r="T70" t="s">
         <v>265</v>
       </c>
@@ -7495,7 +7541,7 @@
         <v>168.03584000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:33">
       <c r="T71" t="s">
         <v>266</v>
       </c>
@@ -7506,12 +7552,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:33">
       <c r="W73" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:33">
       <c r="V74">
         <f>V60+V56+V31++V4</f>
         <v>70.08</v>
@@ -7520,13 +7566,13 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:33">
       <c r="Z75">
         <f>Z69/8</f>
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:33">
       <c r="X80">
         <f>30*2</f>
         <v>60</v>
@@ -7539,7 +7585,7 @@
       <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1 A1:Y40 W68 A42:Y67 A41:E41 G41:Y41">
+  <conditionalFormatting sqref="Z1 A1:Y40 A41:E41 G41:Y41 A42:Y67 W68">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($W1="DIGIKEY",$V1&gt;0,$X1&gt;0)</formula>
     </cfRule>
